--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -5612,28 +5612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.1106219002704</v>
+        <v>227.5979665180009</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.6447635049951</v>
+        <v>311.4095787034146</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.3418246723227</v>
+        <v>281.6890855781416</v>
       </c>
       <c r="AD2" t="n">
-        <v>186110.6219002704</v>
+        <v>227597.9665180009</v>
       </c>
       <c r="AE2" t="n">
-        <v>254644.7635049951</v>
+        <v>311409.5787034146</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.747867405737396e-06</v>
+        <v>4.64540618814082e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.372685185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>230341.8246723227</v>
+        <v>281689.0855781416</v>
       </c>
     </row>
     <row r="3">
@@ -5718,28 +5718,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.2302455913816</v>
+        <v>185.3884468591031</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.0246261762557</v>
+        <v>253.6566517535562</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.8847320289771</v>
+        <v>229.4480169196173</v>
       </c>
       <c r="AD3" t="n">
-        <v>154230.2455913816</v>
+        <v>185388.446859103</v>
       </c>
       <c r="AE3" t="n">
-        <v>211024.6261762557</v>
+        <v>253656.6517535562</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.122953774985064e-06</v>
+        <v>5.279508305714723e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.489197530864198</v>
       </c>
       <c r="AH3" t="n">
-        <v>190884.7320289771</v>
+        <v>229448.0169196173</v>
       </c>
     </row>
     <row r="4">
@@ -5824,28 +5824,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.3686059377484</v>
+        <v>172.8558610469279</v>
       </c>
       <c r="AB4" t="n">
-        <v>179.7443222178113</v>
+        <v>236.5090149466823</v>
       </c>
       <c r="AC4" t="n">
-        <v>162.5897763781343</v>
+        <v>213.9369265027267</v>
       </c>
       <c r="AD4" t="n">
-        <v>131368.6059377484</v>
+        <v>172855.8610469279</v>
       </c>
       <c r="AE4" t="n">
-        <v>179744.3222178112</v>
+        <v>236509.0149466823</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.407078285994569e-06</v>
+        <v>5.759834888755162e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.945216049382717</v>
       </c>
       <c r="AH4" t="n">
-        <v>162589.7763781343</v>
+        <v>213936.9265027267</v>
       </c>
     </row>
     <row r="5">
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.2808955841559</v>
+        <v>155.5243481978979</v>
       </c>
       <c r="AB5" t="n">
-        <v>170.0466042243184</v>
+        <v>212.7952744542682</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.8175949791047</v>
+        <v>192.4863921204571</v>
       </c>
       <c r="AD5" t="n">
-        <v>124280.8955841559</v>
+        <v>155524.3481978979</v>
       </c>
       <c r="AE5" t="n">
-        <v>170046.6042243184</v>
+        <v>212795.2744542682</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.593571102740364e-06</v>
+        <v>6.075110248529023e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.636574074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>153817.5949791047</v>
+        <v>192486.3921204571</v>
       </c>
     </row>
     <row r="6">
@@ -6036,28 +6036,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.1996965664437</v>
+        <v>149.2725569795936</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.7260394447227</v>
+        <v>204.2412978998256</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.2911332240849</v>
+        <v>184.7487950827863</v>
       </c>
       <c r="AD6" t="n">
-        <v>118199.6965664437</v>
+        <v>149272.5569795936</v>
       </c>
       <c r="AE6" t="n">
-        <v>161726.0394447227</v>
+        <v>204241.2978998256</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.760106929803422e-06</v>
+        <v>6.356647327054206e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.389660493827162</v>
       </c>
       <c r="AH6" t="n">
-        <v>146291.1332240849</v>
+        <v>184748.7950827863</v>
       </c>
     </row>
     <row r="7">
@@ -6142,28 +6142,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>113.5046139557933</v>
+        <v>134.3336718735057</v>
       </c>
       <c r="AB7" t="n">
-        <v>155.3020202844079</v>
+        <v>183.8012562405894</v>
       </c>
       <c r="AC7" t="n">
-        <v>140.480213436261</v>
+        <v>166.2595223117225</v>
       </c>
       <c r="AD7" t="n">
-        <v>113504.6139557933</v>
+        <v>134333.6718735057</v>
       </c>
       <c r="AE7" t="n">
-        <v>155302.0202844079</v>
+        <v>183801.2562405894</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.891140322588766e-06</v>
+        <v>6.578165778936996e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>140480.213436261</v>
+        <v>166259.5223117225</v>
       </c>
     </row>
     <row r="8">
@@ -6248,28 +6248,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>111.5843239430579</v>
+        <v>132.4133818607703</v>
       </c>
       <c r="AB8" t="n">
-        <v>152.6745947717684</v>
+        <v>181.1738307279499</v>
       </c>
       <c r="AC8" t="n">
-        <v>138.1035457269321</v>
+        <v>163.8828546023936</v>
       </c>
       <c r="AD8" t="n">
-        <v>111584.3239430579</v>
+        <v>132413.3818607703</v>
       </c>
       <c r="AE8" t="n">
-        <v>152674.5947717684</v>
+        <v>181173.8307279499</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.943238569339492e-06</v>
+        <v>6.666240449986186e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>138103.5457269321</v>
+        <v>163882.8546023936</v>
       </c>
     </row>
     <row r="9">
@@ -6354,28 +6354,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>111.6865487344042</v>
+        <v>132.5156066521166</v>
       </c>
       <c r="AB9" t="n">
-        <v>152.8144632411278</v>
+        <v>181.3136991973093</v>
       </c>
       <c r="AC9" t="n">
-        <v>138.2300653458825</v>
+        <v>164.0093742213441</v>
       </c>
       <c r="AD9" t="n">
-        <v>111686.5487344042</v>
+        <v>132515.6066521166</v>
       </c>
       <c r="AE9" t="n">
-        <v>152814.4632411278</v>
+        <v>181313.6991973093</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.940350057674885e-06</v>
+        <v>6.661357277700192e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.142746913580247</v>
       </c>
       <c r="AH9" t="n">
-        <v>138230.0653458825</v>
+        <v>164009.3742213441</v>
       </c>
     </row>
   </sheetData>
@@ -6651,28 +6651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>351.5913049464186</v>
+        <v>418.0047740543734</v>
       </c>
       <c r="AB2" t="n">
-        <v>481.0627345413457</v>
+        <v>571.9325729303206</v>
       </c>
       <c r="AC2" t="n">
-        <v>435.1507823325074</v>
+        <v>517.3481308822577</v>
       </c>
       <c r="AD2" t="n">
-        <v>351591.3049464186</v>
+        <v>418004.7740543734</v>
       </c>
       <c r="AE2" t="n">
-        <v>481062.7345413457</v>
+        <v>571932.5729303206</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.772421339870869e-06</v>
+        <v>2.868816412972787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.69444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>435150.7823325074</v>
+        <v>517348.1308822577</v>
       </c>
     </row>
     <row r="3">
@@ -6757,28 +6757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.8391562721188</v>
+        <v>316.1694903863192</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.8916410229364</v>
+        <v>432.5970451600492</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.8304037042708</v>
+        <v>391.3105903237396</v>
       </c>
       <c r="AD3" t="n">
-        <v>260839.1562721189</v>
+        <v>316169.4903863192</v>
       </c>
       <c r="AE3" t="n">
-        <v>356891.6410229364</v>
+        <v>432597.0451600492</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.178981018451766e-06</v>
+        <v>3.526868227475762e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.699845679012347</v>
       </c>
       <c r="AH3" t="n">
-        <v>322830.4037042708</v>
+        <v>391310.5903237396</v>
       </c>
     </row>
     <row r="4">
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.457391040702</v>
+        <v>263.7899310157223</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.2712841985363</v>
+        <v>360.9290212061288</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.6138142681109</v>
+        <v>326.482461989278</v>
       </c>
       <c r="AD4" t="n">
-        <v>219457.391040702</v>
+        <v>263789.9310157223</v>
       </c>
       <c r="AE4" t="n">
-        <v>300271.2841985362</v>
+        <v>360929.0212061288</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.463287798759848e-06</v>
+        <v>3.987043209191282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.696759259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>271613.8142681109</v>
+        <v>326482.461989278</v>
       </c>
     </row>
     <row r="5">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.9751199943153</v>
+        <v>235.2246144841291</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.3512696895164</v>
+        <v>321.8446949146277</v>
       </c>
       <c r="AC5" t="n">
-        <v>249.976692371873</v>
+        <v>291.1282889439374</v>
       </c>
       <c r="AD5" t="n">
-        <v>201975.1199943153</v>
+        <v>235224.6144841291</v>
       </c>
       <c r="AE5" t="n">
-        <v>276351.2696895164</v>
+        <v>321844.6949146277</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.682045798402362e-06</v>
+        <v>4.341121850497452e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.067901234567902</v>
       </c>
       <c r="AH5" t="n">
-        <v>249976.692371873</v>
+        <v>291128.2889439375</v>
       </c>
     </row>
     <row r="6">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>178.9552637225094</v>
+        <v>223.2024628429548</v>
       </c>
       <c r="AB6" t="n">
-        <v>244.8544867740637</v>
+        <v>305.3954566592832</v>
       </c>
       <c r="AC6" t="n">
-        <v>221.4859182118487</v>
+        <v>276.248942901027</v>
       </c>
       <c r="AD6" t="n">
-        <v>178955.2637225094</v>
+        <v>223202.4628429548</v>
       </c>
       <c r="AE6" t="n">
-        <v>244854.4867740637</v>
+        <v>305395.4566592833</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.858005456245992e-06</v>
+        <v>4.625927693830199e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.631944444444446</v>
       </c>
       <c r="AH6" t="n">
-        <v>221485.9182118486</v>
+        <v>276248.942901027</v>
       </c>
     </row>
     <row r="7">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>170.2105104987156</v>
+        <v>203.3746641339578</v>
       </c>
       <c r="AB7" t="n">
-        <v>232.8895296219905</v>
+        <v>278.2661877249042</v>
       </c>
       <c r="AC7" t="n">
-        <v>210.6628797774427</v>
+        <v>251.7088533175683</v>
       </c>
       <c r="AD7" t="n">
-        <v>170210.5104987156</v>
+        <v>203374.6641339578</v>
       </c>
       <c r="AE7" t="n">
-        <v>232889.5296219905</v>
+        <v>278266.1877249042</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.009101783492337e-06</v>
+        <v>4.870490097697332e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.300154320987654</v>
       </c>
       <c r="AH7" t="n">
-        <v>210662.8797774427</v>
+        <v>251708.8533175683</v>
       </c>
     </row>
     <row r="8">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>164.0907559255219</v>
+        <v>197.2549095607641</v>
       </c>
       <c r="AB8" t="n">
-        <v>224.5162114304339</v>
+        <v>269.8928695333476</v>
       </c>
       <c r="AC8" t="n">
-        <v>203.0886993220597</v>
+        <v>244.1346728621853</v>
       </c>
       <c r="AD8" t="n">
-        <v>164090.7559255219</v>
+        <v>197254.9095607641</v>
       </c>
       <c r="AE8" t="n">
-        <v>224516.2114304339</v>
+        <v>269892.8695333475</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.122804840808774e-06</v>
+        <v>5.054528277387915e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.072530864197531</v>
       </c>
       <c r="AH8" t="n">
-        <v>203088.6993220597</v>
+        <v>244134.6728621853</v>
       </c>
     </row>
     <row r="9">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>147.7067421539967</v>
+        <v>180.9561471352594</v>
       </c>
       <c r="AB9" t="n">
-        <v>202.0988809765703</v>
+        <v>247.5921837321331</v>
       </c>
       <c r="AC9" t="n">
-        <v>182.8108474237848</v>
+        <v>223.9623332146226</v>
       </c>
       <c r="AD9" t="n">
-        <v>147706.7421539967</v>
+        <v>180956.1471352594</v>
       </c>
       <c r="AE9" t="n">
-        <v>202098.8809765702</v>
+        <v>247592.1837321331</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.228940797508646e-06</v>
+        <v>5.226318453762876e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.871913580246915</v>
       </c>
       <c r="AH9" t="n">
-        <v>182810.8474237848</v>
+        <v>223962.3332146226</v>
       </c>
     </row>
     <row r="10">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>144.1529263058811</v>
+        <v>177.4023312871439</v>
       </c>
       <c r="AB10" t="n">
-        <v>197.2363933498909</v>
+        <v>242.7296961054538</v>
       </c>
       <c r="AC10" t="n">
-        <v>178.4124287916499</v>
+        <v>219.5639145824877</v>
       </c>
       <c r="AD10" t="n">
-        <v>144152.9263058811</v>
+        <v>177402.3312871439</v>
       </c>
       <c r="AE10" t="n">
-        <v>197236.3933498909</v>
+        <v>242729.6961054538</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.300680842315041e-06</v>
+        <v>5.3424358877941e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.744598765432099</v>
       </c>
       <c r="AH10" t="n">
-        <v>178412.4287916499</v>
+        <v>219563.9145824877</v>
       </c>
     </row>
     <row r="11">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>140.3780662321566</v>
+        <v>173.6274712134193</v>
       </c>
       <c r="AB11" t="n">
-        <v>192.0714632619506</v>
+        <v>237.5647660175134</v>
       </c>
       <c r="AC11" t="n">
-        <v>173.7404323822761</v>
+        <v>214.8919181731139</v>
       </c>
       <c r="AD11" t="n">
-        <v>140378.0662321566</v>
+        <v>173627.4712134193</v>
       </c>
       <c r="AE11" t="n">
-        <v>192071.4632619506</v>
+        <v>237564.7660175134</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.380331946856936e-06</v>
+        <v>5.471358052564383e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.609567901234567</v>
       </c>
       <c r="AH11" t="n">
-        <v>173740.432382276</v>
+        <v>214891.9181731139</v>
       </c>
     </row>
     <row r="12">
@@ -7711,28 +7711,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>137.2168151685153</v>
+        <v>170.466220149778</v>
       </c>
       <c r="AB12" t="n">
-        <v>187.7461000921247</v>
+        <v>233.2394028476875</v>
       </c>
       <c r="AC12" t="n">
-        <v>169.8278758026916</v>
+        <v>210.9793615935295</v>
       </c>
       <c r="AD12" t="n">
-        <v>137216.8151685153</v>
+        <v>170466.220149778</v>
       </c>
       <c r="AE12" t="n">
-        <v>187746.1000921247</v>
+        <v>233239.4028476875</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.44558590542056e-06</v>
+        <v>5.576977198039359e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.501543209876544</v>
       </c>
       <c r="AH12" t="n">
-        <v>169827.8758026916</v>
+        <v>210979.3615935295</v>
       </c>
     </row>
     <row r="13">
@@ -7817,28 +7817,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>132.2153855638727</v>
+        <v>165.2941983445433</v>
       </c>
       <c r="AB13" t="n">
-        <v>180.9029234595546</v>
+        <v>226.1628144402706</v>
       </c>
       <c r="AC13" t="n">
-        <v>163.6378023434731</v>
+        <v>204.5781528516599</v>
       </c>
       <c r="AD13" t="n">
-        <v>132215.3855638727</v>
+        <v>165294.1983445433</v>
       </c>
       <c r="AE13" t="n">
-        <v>180902.9234595546</v>
+        <v>226162.8144402706</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.554375261037929e-06</v>
+        <v>5.753062128823694e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.33179012345679</v>
       </c>
       <c r="AH13" t="n">
-        <v>163637.8023434731</v>
+        <v>204578.1528516599</v>
       </c>
     </row>
     <row r="14">
@@ -7923,28 +7923,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>134.2252477004336</v>
+        <v>167.3040604811041</v>
       </c>
       <c r="AB14" t="n">
-        <v>183.6529055036553</v>
+        <v>228.9127964843713</v>
       </c>
       <c r="AC14" t="n">
-        <v>166.1253299609097</v>
+        <v>207.0656804690965</v>
       </c>
       <c r="AD14" t="n">
-        <v>134225.2477004336</v>
+        <v>167304.0604811041</v>
       </c>
       <c r="AE14" t="n">
-        <v>183652.9055036553</v>
+        <v>228912.7964843713</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.511232960120111e-06</v>
+        <v>5.683232603426835e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.397376543209877</v>
       </c>
       <c r="AH14" t="n">
-        <v>166125.3299609097</v>
+        <v>207065.6804690966</v>
       </c>
     </row>
     <row r="15">
@@ -8029,28 +8029,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>130.7248678279034</v>
+        <v>163.803680608574</v>
       </c>
       <c r="AB15" t="n">
-        <v>178.8635313362008</v>
+        <v>224.1234223169168</v>
       </c>
       <c r="AC15" t="n">
-        <v>161.7930469420668</v>
+        <v>202.7333974502536</v>
       </c>
       <c r="AD15" t="n">
-        <v>130724.8678279035</v>
+        <v>163803.680608574</v>
       </c>
       <c r="AE15" t="n">
-        <v>178863.5313362008</v>
+        <v>224123.4223169168</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.5724576832905e-06</v>
+        <v>5.782330084798688e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.304783950617284</v>
       </c>
       <c r="AH15" t="n">
-        <v>161793.0469420668</v>
+        <v>202733.3974502536</v>
       </c>
     </row>
     <row r="16">
@@ -8135,28 +8135,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>128.4799066893059</v>
+        <v>150.6462661853654</v>
       </c>
       <c r="AB16" t="n">
-        <v>175.7918764656777</v>
+        <v>206.1208674389347</v>
       </c>
       <c r="AC16" t="n">
-        <v>159.0145465012907</v>
+        <v>186.4489811430759</v>
       </c>
       <c r="AD16" t="n">
-        <v>128479.9066893059</v>
+        <v>150646.2661853654</v>
       </c>
       <c r="AE16" t="n">
-        <v>175791.8764656777</v>
+        <v>206120.8674389347</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.620317137839423e-06</v>
+        <v>5.859794729145545e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.235339506172839</v>
       </c>
       <c r="AH16" t="n">
-        <v>159014.5465012907</v>
+        <v>186448.9811430759</v>
       </c>
     </row>
     <row r="17">
@@ -8241,28 +8241,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>127.4324945578485</v>
+        <v>149.5988540539081</v>
       </c>
       <c r="AB17" t="n">
-        <v>174.3587609788564</v>
+        <v>204.6877519521134</v>
       </c>
       <c r="AC17" t="n">
-        <v>157.718205545141</v>
+        <v>185.1526401869261</v>
       </c>
       <c r="AD17" t="n">
-        <v>127432.4945578485</v>
+        <v>149598.8540539081</v>
       </c>
       <c r="AE17" t="n">
-        <v>174358.7609788564</v>
+        <v>204687.7519521134</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.647637319286242e-06</v>
+        <v>5.904014793064285e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.19675925925926</v>
       </c>
       <c r="AH17" t="n">
-        <v>157718.205545141</v>
+        <v>185152.6401869261</v>
       </c>
     </row>
     <row r="18">
@@ -8347,28 +8347,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>127.4489457555361</v>
+        <v>149.6153052515956</v>
       </c>
       <c r="AB18" t="n">
-        <v>174.3812702333082</v>
+        <v>204.7102612065651</v>
       </c>
       <c r="AC18" t="n">
-        <v>157.7385665479398</v>
+        <v>185.1730011897249</v>
       </c>
       <c r="AD18" t="n">
-        <v>127448.9457555361</v>
+        <v>149615.3052515956</v>
       </c>
       <c r="AE18" t="n">
-        <v>174381.2702333082</v>
+        <v>204710.2612065651</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.648030415422168e-06</v>
+        <v>5.904651052976783e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.19675925925926</v>
       </c>
       <c r="AH18" t="n">
-        <v>157738.5665479398</v>
+        <v>185173.0011897249</v>
       </c>
     </row>
   </sheetData>
@@ -8644,28 +8644,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.8466022569705</v>
+        <v>162.4509037361346</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.715896700623</v>
+        <v>222.2724933197426</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.8047655067923</v>
+        <v>201.0591185187739</v>
       </c>
       <c r="AD2" t="n">
-        <v>121846.6022569705</v>
+        <v>162450.9037361346</v>
       </c>
       <c r="AE2" t="n">
-        <v>166715.896700623</v>
+        <v>222272.4933197426</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.056158378042753e-06</v>
+        <v>6.550755041543132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.657407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>150804.7655067923</v>
+        <v>201059.1185187739</v>
       </c>
     </row>
   </sheetData>
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.43421277133625</v>
+        <v>124.3983524959819</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.9455442908959</v>
+        <v>170.2073139529119</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.3528467305424</v>
+        <v>153.9629667967588</v>
       </c>
       <c r="AD2" t="n">
-        <v>96434.21277133624</v>
+        <v>124398.3524959819</v>
       </c>
       <c r="AE2" t="n">
-        <v>131945.5442908959</v>
+        <v>170207.3139529119</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.178585718267011e-06</v>
+        <v>7.698762278056171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.428240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>119352.8467305424</v>
+        <v>153962.9667967588</v>
       </c>
     </row>
   </sheetData>
@@ -9238,28 +9238,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.2468107619316</v>
+        <v>237.2039189100632</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.1453001657197</v>
+        <v>324.5528665509378</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.6493276587653</v>
+        <v>293.5779964802218</v>
       </c>
       <c r="AD2" t="n">
-        <v>195246.8107619316</v>
+        <v>237203.9189100632</v>
       </c>
       <c r="AE2" t="n">
-        <v>267145.3001657198</v>
+        <v>324552.8665509378</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.634421515347574e-06</v>
+        <v>4.430251368115083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.631172839506173</v>
       </c>
       <c r="AH2" t="n">
-        <v>241649.3276587653</v>
+        <v>293577.9964802218</v>
       </c>
     </row>
     <row r="3">
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.4603784320474</v>
+        <v>202.3321457256073</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.5489687829131</v>
+        <v>276.8397680459336</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.5955233412479</v>
+        <v>250.4185691307656</v>
       </c>
       <c r="AD3" t="n">
-        <v>160460.3784320474</v>
+        <v>202332.1457256073</v>
       </c>
       <c r="AE3" t="n">
-        <v>219548.9687829131</v>
+        <v>276839.7680459336</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.018733936297424e-06</v>
+        <v>5.076541500038812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.658950617283952</v>
       </c>
       <c r="AH3" t="n">
-        <v>198595.5233412479</v>
+        <v>250418.5691307656</v>
       </c>
     </row>
     <row r="4">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.8406846999027</v>
+        <v>179.2232644649808</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.2821470770069</v>
+        <v>245.2211772132711</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.9766228648114</v>
+        <v>221.8176122301915</v>
       </c>
       <c r="AD4" t="n">
-        <v>147840.6846999027</v>
+        <v>179223.2644649808</v>
       </c>
       <c r="AE4" t="n">
-        <v>202282.1470770069</v>
+        <v>245221.1772132711</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.285209310357172e-06</v>
+        <v>5.52466754350586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.118827160493827</v>
       </c>
       <c r="AH4" t="n">
-        <v>182976.6228648114</v>
+        <v>221817.6122301915</v>
       </c>
     </row>
     <row r="5">
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.1081307061511</v>
+        <v>159.5759618172498</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.2831961639268</v>
+        <v>218.3388709528403</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.5544139336014</v>
+        <v>197.5009155496939</v>
       </c>
       <c r="AD5" t="n">
-        <v>128108.1307061511</v>
+        <v>159575.9618172498</v>
       </c>
       <c r="AE5" t="n">
-        <v>175283.1961639268</v>
+        <v>218338.8709528403</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.511502303544621e-06</v>
+        <v>5.905219720453626e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.725308641975309</v>
       </c>
       <c r="AH5" t="n">
-        <v>158554.4139336014</v>
+        <v>197500.9155496939</v>
       </c>
     </row>
     <row r="6">
@@ -9662,28 +9662,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.4651423112454</v>
+        <v>153.7623812217518</v>
       </c>
       <c r="AB6" t="n">
-        <v>167.5622104909427</v>
+        <v>210.3844735050094</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.570308296773</v>
+        <v>190.3056746302145</v>
       </c>
       <c r="AD6" t="n">
-        <v>122465.1423112454</v>
+        <v>153762.3812217518</v>
       </c>
       <c r="AE6" t="n">
-        <v>167562.2104909427</v>
+        <v>210384.4735050094</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.662538023087972e-06</v>
+        <v>6.159213319899649e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.48996913580247</v>
       </c>
       <c r="AH6" t="n">
-        <v>151570.3082967731</v>
+        <v>190305.6746302145</v>
       </c>
     </row>
     <row r="7">
@@ -9768,28 +9768,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.5767822426057</v>
+        <v>148.8740211531121</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.8737405858075</v>
+        <v>203.6960035998742</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.5201765720553</v>
+        <v>184.2555429054967</v>
       </c>
       <c r="AD7" t="n">
-        <v>117576.7822426057</v>
+        <v>148874.0211531121</v>
       </c>
       <c r="AE7" t="n">
-        <v>160873.7405858075</v>
+        <v>203696.0035998742</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.794498838092721e-06</v>
+        <v>6.381129052748968e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.300925925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>145520.1765720553</v>
+        <v>184255.5429054967</v>
       </c>
     </row>
     <row r="8">
@@ -9874,28 +9874,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>113.9294926861215</v>
+        <v>134.9081362687383</v>
       </c>
       <c r="AB8" t="n">
-        <v>155.8833581075694</v>
+        <v>184.5872637697268</v>
       </c>
       <c r="AC8" t="n">
-        <v>141.0060691934929</v>
+        <v>166.9705143854477</v>
       </c>
       <c r="AD8" t="n">
-        <v>113929.4926861215</v>
+        <v>134908.1362687383</v>
       </c>
       <c r="AE8" t="n">
-        <v>155883.3581075694</v>
+        <v>184587.2637697268</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.889821243560211e-06</v>
+        <v>6.541430741288227e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.169753086419753</v>
       </c>
       <c r="AH8" t="n">
-        <v>141006.0691934929</v>
+        <v>166970.5143854477</v>
       </c>
     </row>
     <row r="9">
@@ -9980,28 +9980,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>113.4427886692907</v>
+        <v>134.4214322519075</v>
       </c>
       <c r="AB9" t="n">
-        <v>155.2174281998759</v>
+        <v>183.9213338620334</v>
       </c>
       <c r="AC9" t="n">
-        <v>140.403694701551</v>
+        <v>166.3681398935059</v>
       </c>
       <c r="AD9" t="n">
-        <v>113442.7886692907</v>
+        <v>134421.4322519075</v>
       </c>
       <c r="AE9" t="n">
-        <v>155217.4281998759</v>
+        <v>183921.3338620334</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.896388013975139e-06</v>
+        <v>6.552473941264142e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.162037037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>140403.694701551</v>
+        <v>166368.1398935059</v>
       </c>
     </row>
     <row r="10">
@@ -10086,28 +10086,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>112.9738898961497</v>
+        <v>133.9525334787665</v>
       </c>
       <c r="AB10" t="n">
-        <v>154.5758602121109</v>
+        <v>183.2797658742683</v>
       </c>
       <c r="AC10" t="n">
-        <v>139.8233570620917</v>
+        <v>165.7878022540466</v>
       </c>
       <c r="AD10" t="n">
-        <v>112973.8898961497</v>
+        <v>133952.5334787665</v>
       </c>
       <c r="AE10" t="n">
-        <v>154575.8602121109</v>
+        <v>183279.7658742683</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.918589952044659e-06</v>
+        <v>6.58981047451604e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.131172839506173</v>
       </c>
       <c r="AH10" t="n">
-        <v>139823.3570620917</v>
+        <v>165787.8022540466</v>
       </c>
     </row>
   </sheetData>
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.6423884502207</v>
+        <v>135.7836811729274</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.9128206076652</v>
+        <v>185.7852229339528</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.9871057988391</v>
+        <v>168.0541420083866</v>
       </c>
       <c r="AD2" t="n">
-        <v>106642.3884502207</v>
+        <v>135783.6811729274</v>
       </c>
       <c r="AE2" t="n">
-        <v>145912.8206076652</v>
+        <v>185785.2229339528</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.917636302293181e-06</v>
+        <v>6.998571351685511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.574845679012345</v>
       </c>
       <c r="AH2" t="n">
-        <v>131987.1057988391</v>
+        <v>168054.1420083866</v>
       </c>
     </row>
     <row r="3">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.5487533956562</v>
+        <v>119.9763713860118</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.5752402938089</v>
+        <v>164.1569643142157</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.4452524482672</v>
+        <v>148.4900540358587</v>
       </c>
       <c r="AD3" t="n">
-        <v>100548.7533956562</v>
+        <v>119976.3713860118</v>
       </c>
       <c r="AE3" t="n">
-        <v>137575.2402938089</v>
+        <v>164156.9643142157</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.1460179261916e-06</v>
+        <v>7.40655845588181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.266203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>124445.2524482672</v>
+        <v>148490.0540358587</v>
       </c>
     </row>
     <row r="4">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.3809958416626</v>
+        <v>119.8086138320182</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.345707007494</v>
+        <v>163.9274310279008</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.2376254966461</v>
+        <v>148.2824270842376</v>
       </c>
       <c r="AD4" t="n">
-        <v>100380.9958416626</v>
+        <v>119808.6138320181</v>
       </c>
       <c r="AE4" t="n">
-        <v>137345.707007494</v>
+        <v>163927.4310279008</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.157507757579799e-06</v>
+        <v>7.427084201148687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.250771604938271</v>
       </c>
       <c r="AH4" t="n">
-        <v>124237.6254966461</v>
+        <v>148282.4270842376</v>
       </c>
     </row>
   </sheetData>
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.0143442593763</v>
+        <v>342.3374316332101</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.073932111783</v>
+        <v>468.4011768221364</v>
       </c>
       <c r="AC2" t="n">
-        <v>356.4640691172711</v>
+        <v>423.6976259114115</v>
       </c>
       <c r="AD2" t="n">
-        <v>288014.3442593763</v>
+        <v>342337.4316332102</v>
       </c>
       <c r="AE2" t="n">
-        <v>394073.932111783</v>
+        <v>468401.1768221364</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.035627802713373e-06</v>
+        <v>3.332098472434594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.483024691358024</v>
       </c>
       <c r="AH2" t="n">
-        <v>356464.0691172711</v>
+        <v>423697.6259114115</v>
       </c>
     </row>
     <row r="3">
@@ -10998,28 +10998,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.4945180335753</v>
+        <v>273.8175158988608</v>
       </c>
       <c r="AB3" t="n">
-        <v>300.3220829881128</v>
+        <v>374.6492052290619</v>
       </c>
       <c r="AC3" t="n">
-        <v>271.6597648925067</v>
+        <v>338.8932109054616</v>
       </c>
       <c r="AD3" t="n">
-        <v>219494.5180335753</v>
+        <v>273817.5158988608</v>
       </c>
       <c r="AE3" t="n">
-        <v>300322.0829881128</v>
+        <v>374649.2052290619</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.42472426023585e-06</v>
+        <v>3.969006511326668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.959104938271604</v>
       </c>
       <c r="AH3" t="n">
-        <v>271659.7648925067</v>
+        <v>338893.2109054616</v>
       </c>
     </row>
     <row r="4">
@@ -11104,28 +11104,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.6917029848528</v>
+        <v>228.388000238059</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.7540213323799</v>
+        <v>312.4905376930254</v>
       </c>
       <c r="AC4" t="n">
-        <v>242.199953331625</v>
+        <v>282.6668793589198</v>
       </c>
       <c r="AD4" t="n">
-        <v>195691.7029848528</v>
+        <v>228388.000238059</v>
       </c>
       <c r="AE4" t="n">
-        <v>267754.0213323799</v>
+        <v>312490.5376930254</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.718072373749838e-06</v>
+        <v>4.449185058519149e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.098765432098765</v>
       </c>
       <c r="AH4" t="n">
-        <v>242199.953331625</v>
+        <v>282666.8793589198</v>
       </c>
     </row>
     <row r="5">
@@ -11210,28 +11210,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.1459379853741</v>
+        <v>203.9274865846009</v>
       </c>
       <c r="AB5" t="n">
-        <v>234.1694227773842</v>
+        <v>279.022583790679</v>
       </c>
       <c r="AC5" t="n">
-        <v>211.8206217264273</v>
+        <v>252.3930600044344</v>
       </c>
       <c r="AD5" t="n">
-        <v>171145.9379853741</v>
+        <v>203927.4865846009</v>
       </c>
       <c r="AE5" t="n">
-        <v>234169.4227773842</v>
+        <v>279022.583790679</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.935131968657273e-06</v>
+        <v>4.804487704540325e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.574074074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>211820.6217264273</v>
+        <v>252393.0600044344</v>
       </c>
     </row>
     <row r="6">
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>162.4144858965834</v>
+        <v>195.025442295218</v>
       </c>
       <c r="AB6" t="n">
-        <v>222.2226648250269</v>
+        <v>266.8424140634748</v>
       </c>
       <c r="AC6" t="n">
-        <v>201.0140455856591</v>
+        <v>241.3753485810152</v>
       </c>
       <c r="AD6" t="n">
-        <v>162414.4858965834</v>
+        <v>195025.442295218</v>
       </c>
       <c r="AE6" t="n">
-        <v>222222.6648250269</v>
+        <v>266842.4140634749</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.095913148199217e-06</v>
+        <v>5.067668784123654e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.234567901234568</v>
       </c>
       <c r="AH6" t="n">
-        <v>201014.0455856592</v>
+        <v>241375.3485810152</v>
       </c>
     </row>
     <row r="7">
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>144.1746452259393</v>
+        <v>187.5989071763364</v>
       </c>
       <c r="AB7" t="n">
-        <v>197.2661101344857</v>
+        <v>256.68110107822</v>
       </c>
       <c r="AC7" t="n">
-        <v>178.4393094480307</v>
+        <v>232.1838170455775</v>
       </c>
       <c r="AD7" t="n">
-        <v>144174.6452259393</v>
+        <v>187598.9071763364</v>
       </c>
       <c r="AE7" t="n">
-        <v>197266.1101344857</v>
+        <v>256681.10107822</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.245738796216678e-06</v>
+        <v>5.312916865440414e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.945216049382717</v>
       </c>
       <c r="AH7" t="n">
-        <v>178439.3094480307</v>
+        <v>232183.8170455775</v>
       </c>
     </row>
     <row r="8">
@@ -11528,28 +11528,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>139.5077635102108</v>
+        <v>172.203971254866</v>
       </c>
       <c r="AB8" t="n">
-        <v>190.8806766827387</v>
+        <v>235.6170705738358</v>
       </c>
       <c r="AC8" t="n">
-        <v>172.6632928029043</v>
+        <v>213.1301080489725</v>
       </c>
       <c r="AD8" t="n">
-        <v>139507.7635102108</v>
+        <v>172203.971254866</v>
       </c>
       <c r="AE8" t="n">
-        <v>190880.6766827387</v>
+        <v>235617.0705738358</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.346489666035433e-06</v>
+        <v>5.477834940823372e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.767746913580247</v>
       </c>
       <c r="AH8" t="n">
-        <v>172663.2928029043</v>
+        <v>213130.1080489726</v>
       </c>
     </row>
     <row r="9">
@@ -11634,28 +11634,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>134.7130102605632</v>
+        <v>167.4092180052184</v>
       </c>
       <c r="AB9" t="n">
-        <v>184.3202837569897</v>
+        <v>229.0566776480869</v>
       </c>
       <c r="AC9" t="n">
-        <v>166.7290145704174</v>
+        <v>207.1958298164857</v>
       </c>
       <c r="AD9" t="n">
-        <v>134713.0102605632</v>
+        <v>167409.2180052184</v>
       </c>
       <c r="AE9" t="n">
-        <v>184320.2837569897</v>
+        <v>229056.6776480869</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.458896420992105e-06</v>
+        <v>5.661832416188565e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.578703703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>166729.0145704174</v>
+        <v>207195.8298164857</v>
       </c>
     </row>
     <row r="10">
@@ -11740,28 +11740,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>131.0845528223231</v>
+        <v>163.6101683663861</v>
       </c>
       <c r="AB10" t="n">
-        <v>179.3556682137475</v>
+        <v>223.8586503299978</v>
       </c>
       <c r="AC10" t="n">
-        <v>162.238214966739</v>
+        <v>202.4938949301562</v>
       </c>
       <c r="AD10" t="n">
-        <v>131084.5528223231</v>
+        <v>163610.1683663861</v>
       </c>
       <c r="AE10" t="n">
-        <v>179355.6682137475</v>
+        <v>223858.6503299978</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.539787263344104e-06</v>
+        <v>5.794241814348567e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>162238.214966739</v>
+        <v>202493.8949301562</v>
       </c>
     </row>
     <row r="11">
@@ -11846,28 +11846,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>127.0646267103544</v>
+        <v>159.5902422544175</v>
       </c>
       <c r="AB11" t="n">
-        <v>173.8554279607312</v>
+        <v>218.3584100769816</v>
       </c>
       <c r="AC11" t="n">
-        <v>157.2629099238331</v>
+        <v>197.5185898872504</v>
       </c>
       <c r="AD11" t="n">
-        <v>127064.6267103544</v>
+        <v>159590.2422544174</v>
       </c>
       <c r="AE11" t="n">
-        <v>173855.4279607312</v>
+        <v>218358.4100769816</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.634685177964847e-06</v>
+        <v>5.949579246821987e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.308641975308642</v>
       </c>
       <c r="AH11" t="n">
-        <v>157262.9099238332</v>
+        <v>197518.5898872504</v>
       </c>
     </row>
     <row r="12">
@@ -11952,28 +11952,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>124.7339092989944</v>
+        <v>146.5314706373156</v>
       </c>
       <c r="AB12" t="n">
-        <v>170.6664375745148</v>
+        <v>200.490822638128</v>
       </c>
       <c r="AC12" t="n">
-        <v>154.3782723043002</v>
+        <v>181.3562599162389</v>
       </c>
       <c r="AD12" t="n">
-        <v>124733.9092989944</v>
+        <v>146531.4706373156</v>
       </c>
       <c r="AE12" t="n">
-        <v>170666.4375745148</v>
+        <v>200490.822638128</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.684510335035095e-06</v>
+        <v>6.031137540308296e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.239197530864198</v>
       </c>
       <c r="AH12" t="n">
-        <v>154378.2723043002</v>
+        <v>181356.2599162389</v>
       </c>
     </row>
     <row r="13">
@@ -12058,28 +12058,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>123.1151825744631</v>
+        <v>144.9127439127843</v>
       </c>
       <c r="AB13" t="n">
-        <v>168.4516242568291</v>
+        <v>198.2760093204423</v>
       </c>
       <c r="AC13" t="n">
-        <v>152.3748376611436</v>
+        <v>179.3528252730824</v>
       </c>
       <c r="AD13" t="n">
-        <v>123115.1825744631</v>
+        <v>144912.7439127843</v>
       </c>
       <c r="AE13" t="n">
-        <v>168451.6242568291</v>
+        <v>198276.0093204423</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.71452548989669e-06</v>
+        <v>6.080269042408482e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.19675925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>152374.8376611436</v>
+        <v>179352.8252730824</v>
       </c>
     </row>
     <row r="14">
@@ -12164,28 +12164,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>122.2109734135287</v>
+        <v>144.0085347518498</v>
       </c>
       <c r="AB14" t="n">
-        <v>167.2144453919465</v>
+        <v>197.0388304555597</v>
       </c>
       <c r="AC14" t="n">
-        <v>151.2557334107335</v>
+        <v>178.2337210226723</v>
       </c>
       <c r="AD14" t="n">
-        <v>122210.9734135287</v>
+        <v>144008.5347518498</v>
       </c>
       <c r="AE14" t="n">
-        <v>167214.4453919465</v>
+        <v>197038.8304555597</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.736736704494269e-06</v>
+        <v>6.116626353962618e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.165895061728396</v>
       </c>
       <c r="AH14" t="n">
-        <v>151255.7334107335</v>
+        <v>178233.7210226723</v>
       </c>
     </row>
     <row r="15">
@@ -12270,28 +12270,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>122.1401007669254</v>
+        <v>143.9376621052466</v>
       </c>
       <c r="AB15" t="n">
-        <v>167.1174743101834</v>
+        <v>196.9418593737966</v>
       </c>
       <c r="AC15" t="n">
-        <v>151.1680171129142</v>
+        <v>178.1460047248529</v>
       </c>
       <c r="AD15" t="n">
-        <v>122140.1007669254</v>
+        <v>143937.6621052466</v>
       </c>
       <c r="AE15" t="n">
-        <v>167117.4743101834</v>
+        <v>196941.8593737966</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.738037361204939e-06</v>
+        <v>6.118755385720293e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.162037037037037</v>
       </c>
       <c r="AH15" t="n">
-        <v>151168.0171129142</v>
+        <v>178146.0047248529</v>
       </c>
     </row>
   </sheetData>
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.6971992193001</v>
+        <v>173.8836514048595</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.6128474447709</v>
+        <v>237.9152830573141</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.8483932325622</v>
+        <v>215.2089823585898</v>
       </c>
       <c r="AD2" t="n">
-        <v>143697.1992193001</v>
+        <v>173883.6514048595</v>
       </c>
       <c r="AE2" t="n">
-        <v>196612.8474447709</v>
+        <v>237915.2830573141</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.26346703192568e-06</v>
+        <v>5.651642859106437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.423611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>177848.3932325622</v>
+        <v>215208.9823585898</v>
       </c>
     </row>
     <row r="3">
@@ -12673,28 +12673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.3831158566315</v>
+        <v>149.6548193882115</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.3452459263312</v>
+        <v>204.7643261915235</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.7558049116597</v>
+        <v>185.2219062883996</v>
       </c>
       <c r="AD3" t="n">
-        <v>119383.1158566315</v>
+        <v>149654.8193882115</v>
       </c>
       <c r="AE3" t="n">
-        <v>163345.2459263311</v>
+        <v>204764.3261915235</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.636059042729207e-06</v>
+        <v>6.29689435287603e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>147755.8049116597</v>
+        <v>185221.9062883996</v>
       </c>
     </row>
     <row r="4">
@@ -12779,28 +12779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.8302450314141</v>
+        <v>140.9313563624019</v>
       </c>
       <c r="AB4" t="n">
-        <v>151.6428307372442</v>
+        <v>192.8284992275897</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.1702518037726</v>
+        <v>174.4252178978614</v>
       </c>
       <c r="AD4" t="n">
-        <v>110830.2450314141</v>
+        <v>140931.3563624019</v>
       </c>
       <c r="AE4" t="n">
-        <v>151642.8307372442</v>
+        <v>192828.4992275897</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.89972031838239e-06</v>
+        <v>6.753500579073732e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.374228395061729</v>
       </c>
       <c r="AH4" t="n">
-        <v>137170.2518037726</v>
+        <v>174425.2178978614</v>
       </c>
     </row>
     <row r="5">
@@ -12885,28 +12885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.3298021714553</v>
+        <v>126.5110273677264</v>
       </c>
       <c r="AB5" t="n">
-        <v>145.4851262707253</v>
+        <v>173.0979689170686</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.6002300091438</v>
+        <v>156.577741708197</v>
       </c>
       <c r="AD5" t="n">
-        <v>106329.8021714553</v>
+        <v>126511.0273677264</v>
       </c>
       <c r="AE5" t="n">
-        <v>145485.1262707253</v>
+        <v>173097.9689170686</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.04673606367757e-06</v>
+        <v>7.008101124734351e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.181327160493827</v>
       </c>
       <c r="AH5" t="n">
-        <v>131600.2300091438</v>
+        <v>156577.741708197</v>
       </c>
     </row>
     <row r="6">
@@ -12991,28 +12991,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.8904128954016</v>
+        <v>126.0716380916726</v>
       </c>
       <c r="AB6" t="n">
-        <v>144.883934478742</v>
+        <v>172.4967771250853</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.0564151180093</v>
+        <v>156.0339268170625</v>
       </c>
       <c r="AD6" t="n">
-        <v>105890.4128954016</v>
+        <v>126071.6380916726</v>
       </c>
       <c r="AE6" t="n">
-        <v>144883.934478742</v>
+        <v>172496.7771250854</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.062545960898891e-06</v>
+        <v>7.035480562571467e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.158179012345679</v>
       </c>
       <c r="AH6" t="n">
-        <v>131056.4151180093</v>
+        <v>156033.9268170625</v>
       </c>
     </row>
   </sheetData>
@@ -13288,28 +13288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.6655144057494</v>
+        <v>268.1111619239971</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.7655124696632</v>
+        <v>366.8415199740835</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.2973653147683</v>
+        <v>331.8306801730632</v>
       </c>
       <c r="AD2" t="n">
-        <v>225665.5144057494</v>
+        <v>268111.1619239972</v>
       </c>
       <c r="AE2" t="n">
-        <v>308765.5124696632</v>
+        <v>366841.5199740835</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425647210778687e-06</v>
+        <v>4.039401561635407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.171296296296298</v>
       </c>
       <c r="AH2" t="n">
-        <v>279297.3653147683</v>
+        <v>331830.6801730632</v>
       </c>
     </row>
     <row r="3">
@@ -13394,28 +13394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.1020454245219</v>
+        <v>217.0003090812716</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.2647846756229</v>
+        <v>296.9093962628397</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.093549085613</v>
+        <v>268.5727801985567</v>
       </c>
       <c r="AD3" t="n">
-        <v>185102.0454245219</v>
+        <v>217000.3090812716</v>
       </c>
       <c r="AE3" t="n">
-        <v>253264.7846756229</v>
+        <v>296909.3962628397</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.813450794578854e-06</v>
+        <v>4.685206275135901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.044753086419754</v>
       </c>
       <c r="AH3" t="n">
-        <v>229093.549085613</v>
+        <v>268572.7801985567</v>
       </c>
     </row>
     <row r="4">
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.8918356428093</v>
+        <v>190.7047584449874</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.4028193394546</v>
+        <v>260.9306638044737</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.6541993885327</v>
+        <v>236.0278074695377</v>
       </c>
       <c r="AD4" t="n">
-        <v>158891.8356428093</v>
+        <v>190704.7584449874</v>
       </c>
       <c r="AE4" t="n">
-        <v>217402.8193394546</v>
+        <v>260930.6638044737</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.090460692252271e-06</v>
+        <v>5.146507575785988e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.412037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>196654.1993885327</v>
+        <v>236027.8074695377</v>
       </c>
     </row>
     <row r="5">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.2376491321563</v>
+        <v>181.0505719343344</v>
       </c>
       <c r="AB5" t="n">
-        <v>204.1935354429363</v>
+        <v>247.7213799079555</v>
       </c>
       <c r="AC5" t="n">
-        <v>184.7055910077475</v>
+        <v>224.0791990887525</v>
       </c>
       <c r="AD5" t="n">
-        <v>149237.6491321563</v>
+        <v>181050.5719343344</v>
       </c>
       <c r="AE5" t="n">
-        <v>204193.5354429363</v>
+        <v>247721.3799079555</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.297152297710797e-06</v>
+        <v>5.49070865752453e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.010802469135802</v>
       </c>
       <c r="AH5" t="n">
-        <v>184705.5910077475</v>
+        <v>224079.1990887525</v>
       </c>
     </row>
     <row r="6">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>131.408985256394</v>
+        <v>163.3071594045927</v>
       </c>
       <c r="AB6" t="n">
-        <v>179.799570982992</v>
+        <v>223.4440601006604</v>
       </c>
       <c r="AC6" t="n">
-        <v>162.6397522787084</v>
+        <v>202.1188726104256</v>
       </c>
       <c r="AD6" t="n">
-        <v>131408.985256394</v>
+        <v>163307.1594045927</v>
       </c>
       <c r="AE6" t="n">
-        <v>179799.570982992</v>
+        <v>223444.0601006604</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.463779426962154e-06</v>
+        <v>5.768190841709378e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.721450617283951</v>
       </c>
       <c r="AH6" t="n">
-        <v>162639.7522787084</v>
+        <v>202118.8726104256</v>
       </c>
     </row>
     <row r="7">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>126.5653133734459</v>
+        <v>158.4634875216446</v>
       </c>
       <c r="AB7" t="n">
-        <v>173.1722454250236</v>
+        <v>216.816734542692</v>
       </c>
       <c r="AC7" t="n">
-        <v>156.6449293704805</v>
+        <v>196.1240497021977</v>
       </c>
       <c r="AD7" t="n">
-        <v>126565.3133734459</v>
+        <v>158463.4875216446</v>
       </c>
       <c r="AE7" t="n">
-        <v>173172.2454250236</v>
+        <v>216816.734542692</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.587773844352034e-06</v>
+        <v>5.974677275933244e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.524691358024691</v>
       </c>
       <c r="AH7" t="n">
-        <v>156644.9293704805</v>
+        <v>196124.0497021977</v>
       </c>
     </row>
     <row r="8">
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>122.0247393348276</v>
+        <v>153.7523212824341</v>
       </c>
       <c r="AB8" t="n">
-        <v>166.9596317094001</v>
+        <v>210.3707090522217</v>
       </c>
       <c r="AC8" t="n">
-        <v>151.025238788416</v>
+        <v>190.2932238374822</v>
       </c>
       <c r="AD8" t="n">
-        <v>122024.7393348276</v>
+        <v>153752.321282434</v>
       </c>
       <c r="AE8" t="n">
-        <v>166959.6317094001</v>
+        <v>210370.7090522216</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.70390946063974e-06</v>
+        <v>6.168076541790809e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.35108024691358</v>
       </c>
       <c r="AH8" t="n">
-        <v>151025.238788416</v>
+        <v>190293.2238374822</v>
       </c>
     </row>
     <row r="9">
@@ -14030,28 +14030,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>117.8338848416623</v>
+        <v>139.0994237823458</v>
       </c>
       <c r="AB9" t="n">
-        <v>161.2255197044027</v>
+        <v>190.3219682523967</v>
       </c>
       <c r="AC9" t="n">
-        <v>145.8383823852971</v>
+        <v>172.1579067210018</v>
       </c>
       <c r="AD9" t="n">
-        <v>117833.8848416623</v>
+        <v>139099.4237823458</v>
       </c>
       <c r="AE9" t="n">
-        <v>161225.5197044027</v>
+        <v>190321.9682523967</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.812391734677615e-06</v>
+        <v>6.348730787474657e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.19675925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>145838.382385297</v>
+        <v>172157.9067210018</v>
       </c>
     </row>
     <row r="10">
@@ -14136,28 +14136,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>115.9154716019023</v>
+        <v>137.1810105425858</v>
       </c>
       <c r="AB10" t="n">
-        <v>158.6006620753454</v>
+        <v>187.6971106233394</v>
       </c>
       <c r="AC10" t="n">
-        <v>143.4640374843453</v>
+        <v>169.7835618200501</v>
       </c>
       <c r="AD10" t="n">
-        <v>115915.4716019023</v>
+        <v>137181.0105425858</v>
       </c>
       <c r="AE10" t="n">
-        <v>158600.6620753454</v>
+        <v>187697.1106233394</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.859852729569185e-06</v>
+        <v>6.427767019961339e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.135030864197531</v>
       </c>
       <c r="AH10" t="n">
-        <v>143464.0374843453</v>
+        <v>169783.5618200501</v>
       </c>
     </row>
     <row r="11">
@@ -14242,28 +14242,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>115.8078754152452</v>
+        <v>137.0734143559287</v>
       </c>
       <c r="AB11" t="n">
-        <v>158.4534442259526</v>
+        <v>187.5498927739465</v>
       </c>
       <c r="AC11" t="n">
-        <v>143.3308698998769</v>
+        <v>169.6503942355816</v>
       </c>
       <c r="AD11" t="n">
-        <v>115807.8754152452</v>
+        <v>137073.4143559287</v>
       </c>
       <c r="AE11" t="n">
-        <v>158453.4442259526</v>
+        <v>187549.8927739465</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.86627331870495e-06</v>
+        <v>6.438459150979559e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.127314814814814</v>
       </c>
       <c r="AH11" t="n">
-        <v>143330.8698998769</v>
+        <v>169650.3942355816</v>
       </c>
     </row>
   </sheetData>
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.94583696586275</v>
+        <v>121.2919338040085</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.5408387344561</v>
+        <v>165.9569748530356</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.2730814938738</v>
+        <v>150.1182740951849</v>
       </c>
       <c r="AD2" t="n">
-        <v>93945.83696586275</v>
+        <v>121291.9338040085</v>
       </c>
       <c r="AE2" t="n">
-        <v>128540.838734456</v>
+        <v>165956.9748530356</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.152552277203129e-06</v>
+        <v>7.857522495028251e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.632716049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>116273.0814938738</v>
+        <v>150118.2740951849</v>
       </c>
     </row>
   </sheetData>
@@ -14836,28 +14836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.4766073981192</v>
+        <v>125.795907534444</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.3717946064649</v>
+        <v>172.1195104123117</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.6429777177488</v>
+        <v>155.6926659098587</v>
       </c>
       <c r="AD2" t="n">
-        <v>97476.6073981192</v>
+        <v>125795.907534444</v>
       </c>
       <c r="AE2" t="n">
-        <v>133371.7946064649</v>
+        <v>172119.5104123117</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.188073549080042e-06</v>
+        <v>7.629760462471883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.343364197530864</v>
       </c>
       <c r="AH2" t="n">
-        <v>120642.9777177488</v>
+        <v>155692.6659098587</v>
       </c>
     </row>
     <row r="3">
@@ -14942,28 +14942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.62253927793191</v>
+        <v>125.9418394142567</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.5714650424847</v>
+        <v>172.3191808483315</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.8235918875942</v>
+        <v>155.873280079704</v>
       </c>
       <c r="AD3" t="n">
-        <v>97622.53927793191</v>
+        <v>125941.8394142567</v>
       </c>
       <c r="AE3" t="n">
-        <v>133571.4650424847</v>
+        <v>172319.1808483315</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.184883718508955e-06</v>
+        <v>7.623949283922114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>120823.5918875942</v>
+        <v>155873.280079704</v>
       </c>
     </row>
   </sheetData>
@@ -15239,28 +15239,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.9033581591362</v>
+        <v>358.7108675055173</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.8139819032556</v>
+        <v>490.8040341276371</v>
       </c>
       <c r="AC2" t="n">
-        <v>376.1292790689971</v>
+        <v>443.962385958283</v>
       </c>
       <c r="AD2" t="n">
-        <v>303903.3581591363</v>
+        <v>358710.8675055173</v>
       </c>
       <c r="AE2" t="n">
-        <v>415813.9819032556</v>
+        <v>490804.0341276371</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.945020371276479e-06</v>
+        <v>3.171431921211402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.861111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>376129.2790689971</v>
+        <v>443962.385958283</v>
       </c>
     </row>
     <row r="3">
@@ -15345,28 +15345,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.3428903843054</v>
+        <v>283.1036465153927</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.4795016867561</v>
+        <v>387.3548988137701</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.2253176662367</v>
+        <v>350.3862909269981</v>
       </c>
       <c r="AD3" t="n">
-        <v>239342.8903843054</v>
+        <v>283103.6465153927</v>
       </c>
       <c r="AE3" t="n">
-        <v>327479.5016867561</v>
+        <v>387354.8988137702</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.34625540185422e-06</v>
+        <v>3.825661358945962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.175154320987655</v>
       </c>
       <c r="AH3" t="n">
-        <v>296225.3176662367</v>
+        <v>350386.2909269981</v>
       </c>
     </row>
     <row r="4">
@@ -15451,28 +15451,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.8630924734744</v>
+        <v>246.5385077499865</v>
       </c>
       <c r="AB4" t="n">
-        <v>277.5662328100824</v>
+        <v>337.3248628147099</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.075701117424</v>
+        <v>305.1310513461929</v>
       </c>
       <c r="AD4" t="n">
-        <v>202863.0924734744</v>
+        <v>246538.5077499865</v>
       </c>
       <c r="AE4" t="n">
-        <v>277566.2328100824</v>
+        <v>337324.8628147099</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.636019684159928e-06</v>
+        <v>4.298133374202098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.276234567901235</v>
       </c>
       <c r="AH4" t="n">
-        <v>251075.701117424</v>
+        <v>305131.0513461928</v>
       </c>
     </row>
     <row r="5">
@@ -15557,28 +15557,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.4698508132346</v>
+        <v>221.2305174357673</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.8220792998024</v>
+        <v>302.6973539570791</v>
       </c>
       <c r="AC5" t="n">
-        <v>219.6474808544284</v>
+        <v>273.8083433339094</v>
       </c>
       <c r="AD5" t="n">
-        <v>177469.8508132346</v>
+        <v>221230.5174357673</v>
       </c>
       <c r="AE5" t="n">
-        <v>242822.0792998024</v>
+        <v>302697.3539570791</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.847824049743716e-06</v>
+        <v>4.643488690775732e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.736111111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>219647.4808544284</v>
+        <v>273808.3433339094</v>
       </c>
     </row>
     <row r="6">
@@ -15663,28 +15663,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>167.4832026164563</v>
+        <v>200.2824568782639</v>
       </c>
       <c r="AB6" t="n">
-        <v>229.1579066571533</v>
+        <v>274.0352933391097</v>
       </c>
       <c r="AC6" t="n">
-        <v>207.2873976710026</v>
+        <v>247.8817495538553</v>
       </c>
       <c r="AD6" t="n">
-        <v>167483.2026164563</v>
+        <v>200282.4568782639</v>
       </c>
       <c r="AE6" t="n">
-        <v>229157.9066571533</v>
+        <v>274035.2933391097</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.019654070273663e-06</v>
+        <v>4.923664271545329e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>207287.3976710026</v>
+        <v>247881.7495538553</v>
       </c>
     </row>
     <row r="7">
@@ -15769,28 +15769,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>160.5312662651213</v>
+        <v>193.3305205269289</v>
       </c>
       <c r="AB7" t="n">
-        <v>219.6459606434752</v>
+        <v>264.5233473254318</v>
       </c>
       <c r="AC7" t="n">
-        <v>198.6832584347669</v>
+        <v>239.2776103176196</v>
       </c>
       <c r="AD7" t="n">
-        <v>160531.2662651213</v>
+        <v>193330.5205269289</v>
       </c>
       <c r="AE7" t="n">
-        <v>219645.9606434752</v>
+        <v>264523.3473254318</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.156083924537023e-06</v>
+        <v>5.146118494239707e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>198683.2584347669</v>
+        <v>239277.6103176196</v>
       </c>
     </row>
     <row r="8">
@@ -15875,28 +15875,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>143.4145244187094</v>
+        <v>176.2990300265375</v>
       </c>
       <c r="AB8" t="n">
-        <v>196.2260793118709</v>
+        <v>241.2201106464766</v>
       </c>
       <c r="AC8" t="n">
-        <v>177.4985377074335</v>
+        <v>218.1984018409984</v>
       </c>
       <c r="AD8" t="n">
-        <v>143414.5244187094</v>
+        <v>176299.0300265375</v>
       </c>
       <c r="AE8" t="n">
-        <v>196226.0793118709</v>
+        <v>241220.1106464766</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.281277209170821e-06</v>
+        <v>5.350251049904592e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.844907407407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>177498.5377074335</v>
+        <v>218198.4018409984</v>
       </c>
     </row>
     <row r="9">
@@ -15981,28 +15981,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>139.1083524399621</v>
+        <v>171.9928580477903</v>
       </c>
       <c r="AB9" t="n">
-        <v>190.3341848356519</v>
+        <v>235.3282161702576</v>
       </c>
       <c r="AC9" t="n">
-        <v>172.1689573706972</v>
+        <v>212.868821504262</v>
       </c>
       <c r="AD9" t="n">
-        <v>139108.3524399621</v>
+        <v>171992.8580477903</v>
       </c>
       <c r="AE9" t="n">
-        <v>190334.1848356519</v>
+        <v>235328.2161702576</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.374152926285966e-06</v>
+        <v>5.5016885455289e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.686728395061729</v>
       </c>
       <c r="AH9" t="n">
-        <v>172168.9573706972</v>
+        <v>212868.821504262</v>
       </c>
     </row>
     <row r="10">
@@ -16087,28 +16087,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>135.5276398065895</v>
+        <v>168.4121454144178</v>
       </c>
       <c r="AB10" t="n">
-        <v>185.4348958407816</v>
+        <v>230.4289271753873</v>
       </c>
       <c r="AC10" t="n">
-        <v>167.7372496413005</v>
+        <v>208.4371137748653</v>
       </c>
       <c r="AD10" t="n">
-        <v>135527.6398065895</v>
+        <v>168412.1454144178</v>
       </c>
       <c r="AE10" t="n">
-        <v>185434.8958407816</v>
+        <v>230428.9271753873</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.45191396566931e-06</v>
+        <v>5.628480966918844e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>167737.2496413004</v>
+        <v>208437.1137748653</v>
       </c>
     </row>
     <row r="11">
@@ -16193,28 +16193,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>131.8319297135844</v>
+        <v>164.5458431208204</v>
       </c>
       <c r="AB11" t="n">
-        <v>180.3782622483122</v>
+        <v>225.1388818080711</v>
       </c>
       <c r="AC11" t="n">
-        <v>163.1632140618649</v>
+        <v>203.6519429127787</v>
       </c>
       <c r="AD11" t="n">
-        <v>131831.9297135844</v>
+        <v>164545.8431208204</v>
       </c>
       <c r="AE11" t="n">
-        <v>180378.2622483122</v>
+        <v>225138.881808071</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.535691044544588e-06</v>
+        <v>5.76508277640865e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.424382716049383</v>
       </c>
       <c r="AH11" t="n">
-        <v>163163.2140618649</v>
+        <v>203651.9429127787</v>
       </c>
     </row>
     <row r="12">
@@ -16299,28 +16299,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>127.0687623535733</v>
+        <v>148.9918556006765</v>
       </c>
       <c r="AB12" t="n">
-        <v>173.861086530235</v>
+        <v>203.8572298895206</v>
       </c>
       <c r="AC12" t="n">
-        <v>157.2680284474054</v>
+        <v>184.4013819843419</v>
       </c>
       <c r="AD12" t="n">
-        <v>127068.7623535733</v>
+        <v>148991.8556006765</v>
       </c>
       <c r="AE12" t="n">
-        <v>173861.086530235</v>
+        <v>203857.2298895206</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.643333404049025e-06</v>
+        <v>5.940597861005344e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.266203703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>157268.0284474054</v>
+        <v>184401.3819843419</v>
       </c>
     </row>
     <row r="13">
@@ -16405,28 +16405,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>129.5871397695854</v>
+        <v>162.3010531768215</v>
       </c>
       <c r="AB13" t="n">
-        <v>177.3068416137914</v>
+        <v>222.0674611735503</v>
       </c>
       <c r="AC13" t="n">
-        <v>160.3849255019358</v>
+        <v>200.8736543528497</v>
       </c>
       <c r="AD13" t="n">
-        <v>129587.1397695854</v>
+        <v>162301.0531768214</v>
       </c>
       <c r="AE13" t="n">
-        <v>177306.8416137914</v>
+        <v>222067.4611735503</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.581731148425008e-06</v>
+        <v>5.840152969635689e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.354938271604939</v>
       </c>
       <c r="AH13" t="n">
-        <v>160384.9255019359</v>
+        <v>200873.6543528497</v>
       </c>
     </row>
     <row r="14">
@@ -16511,28 +16511,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>124.6173618852169</v>
+        <v>146.5404551323201</v>
       </c>
       <c r="AB14" t="n">
-        <v>170.5069722612756</v>
+        <v>200.5031156205611</v>
       </c>
       <c r="AC14" t="n">
-        <v>154.2340261367454</v>
+        <v>181.3673796736819</v>
       </c>
       <c r="AD14" t="n">
-        <v>124617.3618852169</v>
+        <v>146540.4551323201</v>
       </c>
       <c r="AE14" t="n">
-        <v>170506.9722612756</v>
+        <v>200503.1156205611</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.690666210630191e-06</v>
+        <v>6.017775856634006e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.19675925925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>154234.0261367454</v>
+        <v>181367.3796736819</v>
       </c>
     </row>
     <row r="15">
@@ -16617,28 +16617,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>124.4814554137233</v>
+        <v>146.4045486608265</v>
       </c>
       <c r="AB15" t="n">
-        <v>170.3210190312078</v>
+        <v>200.3171623904933</v>
       </c>
       <c r="AC15" t="n">
-        <v>154.0658200219682</v>
+        <v>181.1991735589047</v>
       </c>
       <c r="AD15" t="n">
-        <v>124481.4554137233</v>
+        <v>146404.5486608265</v>
       </c>
       <c r="AE15" t="n">
-        <v>170321.0190312078</v>
+        <v>200317.1623904933</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.683009433095003e-06</v>
+        <v>6.005291180870547e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>154065.8200219682</v>
+        <v>181199.1735589047</v>
       </c>
     </row>
     <row r="16">
@@ -16723,28 +16723,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>123.8197802452291</v>
+        <v>145.7428734923323</v>
       </c>
       <c r="AB16" t="n">
-        <v>169.4156858746262</v>
+        <v>199.4118292339118</v>
       </c>
       <c r="AC16" t="n">
-        <v>153.2468905912074</v>
+        <v>180.3802441281439</v>
       </c>
       <c r="AD16" t="n">
-        <v>123819.7802452291</v>
+        <v>145742.8734923323</v>
       </c>
       <c r="AE16" t="n">
-        <v>169415.6858746262</v>
+        <v>199411.8292339118</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.707620503743822e-06</v>
+        <v>6.045420495824524e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.173611111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>153246.8905912074</v>
+        <v>180380.2441281439</v>
       </c>
     </row>
   </sheetData>
@@ -17020,28 +17020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.3824988903802</v>
+        <v>127.7051974455612</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.7160076619449</v>
+        <v>174.7318851006271</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.4771465798657</v>
+        <v>158.0557192244129</v>
       </c>
       <c r="AD2" t="n">
-        <v>101382.4988903802</v>
+        <v>127705.1974455612</v>
       </c>
       <c r="AE2" t="n">
-        <v>138716.0076619449</v>
+        <v>174731.8851006271</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.005893402388828e-06</v>
+        <v>7.850260367954418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.064814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>125477.1465798657</v>
+        <v>158055.7192244129</v>
       </c>
     </row>
   </sheetData>
@@ -17317,28 +17317,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.9187549735174</v>
+        <v>191.5362400790095</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.4936986202408</v>
+        <v>262.068333658523</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.7862298397101</v>
+        <v>237.0568997094465</v>
       </c>
       <c r="AD2" t="n">
-        <v>150918.7549735174</v>
+        <v>191536.2400790095</v>
       </c>
       <c r="AE2" t="n">
-        <v>206493.6986202408</v>
+        <v>262068.333658523</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.126414689579346e-06</v>
+        <v>5.378937719614508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.643518518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>186786.2298397101</v>
+        <v>237056.8997094465</v>
       </c>
     </row>
     <row r="3">
@@ -17423,28 +17423,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.4105907069689</v>
+        <v>165.9427349578894</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.5923029299819</v>
+        <v>227.0501708460664</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.2157743697018</v>
+        <v>205.3808212074994</v>
       </c>
       <c r="AD3" t="n">
-        <v>125410.5907069689</v>
+        <v>165942.7349578894</v>
       </c>
       <c r="AE3" t="n">
-        <v>171592.3029299818</v>
+        <v>227050.1708460664</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.491298571151999e-06</v>
+        <v>6.006713580703036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.949074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>155215.7743697019</v>
+        <v>205380.8212074994</v>
       </c>
     </row>
     <row r="4">
@@ -17529,28 +17529,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.2945090490874</v>
+        <v>146.8216285191352</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.1192778325359</v>
+        <v>200.8878294528957</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.9331572815515</v>
+        <v>181.7153769578079</v>
       </c>
       <c r="AD4" t="n">
-        <v>116294.5090490874</v>
+        <v>146821.6285191352</v>
       </c>
       <c r="AE4" t="n">
-        <v>159119.2778325359</v>
+        <v>200887.8294528957</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.755929569813588e-06</v>
+        <v>6.462006240766503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.532407407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>143933.1572815515</v>
+        <v>181715.3769578079</v>
       </c>
     </row>
     <row r="5">
@@ -17635,28 +17635,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.9003801181842</v>
+        <v>130.2518826067672</v>
       </c>
       <c r="AB5" t="n">
-        <v>150.3705485402189</v>
+        <v>178.2163720900072</v>
       </c>
       <c r="AC5" t="n">
-        <v>136.0193944339718</v>
+        <v>161.207651666036</v>
       </c>
       <c r="AD5" t="n">
-        <v>109900.3801181842</v>
+        <v>130251.8826067672</v>
       </c>
       <c r="AE5" t="n">
-        <v>150370.5485402189</v>
+        <v>178216.3720900072</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.950082038007624e-06</v>
+        <v>6.796041913643178e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.258487654320988</v>
       </c>
       <c r="AH5" t="n">
-        <v>136019.3944339718</v>
+        <v>161207.651666036</v>
       </c>
     </row>
     <row r="6">
@@ -17741,28 +17741,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>107.3775857595954</v>
+        <v>127.7290882481783</v>
       </c>
       <c r="AB6" t="n">
-        <v>146.9187500009673</v>
+        <v>174.7645735507556</v>
       </c>
       <c r="AC6" t="n">
-        <v>132.8970307026756</v>
+        <v>158.0852879347397</v>
       </c>
       <c r="AD6" t="n">
-        <v>107377.5857595954</v>
+        <v>127729.0882481783</v>
       </c>
       <c r="AE6" t="n">
-        <v>146918.7500009673</v>
+        <v>174764.5735507556</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.031059662013124e-06</v>
+        <v>6.935362393955579e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.15432098765432</v>
       </c>
       <c r="AH6" t="n">
-        <v>132897.0307026755</v>
+        <v>158085.2879347397</v>
       </c>
     </row>
     <row r="7">
@@ -17847,28 +17847,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.5215932386974</v>
+        <v>127.8730957272803</v>
       </c>
       <c r="AB7" t="n">
-        <v>147.1157873870361</v>
+        <v>174.9616109368245</v>
       </c>
       <c r="AC7" t="n">
-        <v>133.0752631171618</v>
+        <v>158.263520349226</v>
       </c>
       <c r="AD7" t="n">
-        <v>107521.5932386974</v>
+        <v>127873.0957272803</v>
       </c>
       <c r="AE7" t="n">
-        <v>147115.7873870361</v>
+        <v>174961.6109368245</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.027775330188433e-06</v>
+        <v>6.929711762772696e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.158179012345679</v>
       </c>
       <c r="AH7" t="n">
-        <v>133075.2631171618</v>
+        <v>158263.520349226</v>
       </c>
     </row>
   </sheetData>
@@ -18144,28 +18144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.8591469239614</v>
+        <v>126.6263220267043</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.9999344128319</v>
+        <v>173.2557201559236</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.8294143566327</v>
+        <v>156.7204373902209</v>
       </c>
       <c r="AD2" t="n">
-        <v>100859.1469239614</v>
+        <v>126626.3220267043</v>
       </c>
       <c r="AE2" t="n">
-        <v>137999.9344128319</v>
+        <v>173255.7201559236</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.862437027232899e-06</v>
+        <v>7.742874465630168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.435185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>124829.4143566327</v>
+        <v>156720.4373902209</v>
       </c>
     </row>
   </sheetData>
@@ -18441,28 +18441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.4619308653877</v>
+        <v>280.1833322008853</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.9058898908967</v>
+        <v>383.3591959334864</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.8973277680866</v>
+        <v>346.7719323216045</v>
       </c>
       <c r="AD2" t="n">
-        <v>237461.9308653877</v>
+        <v>280183.3322008853</v>
       </c>
       <c r="AE2" t="n">
-        <v>324905.8898908967</v>
+        <v>383359.1959334865</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.31945865006971e-06</v>
+        <v>3.844939275353157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.483796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>293897.3277680866</v>
+        <v>346771.9323216045</v>
       </c>
     </row>
     <row r="3">
@@ -18547,28 +18547,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.2060553557593</v>
+        <v>235.8421158366818</v>
       </c>
       <c r="AB3" t="n">
-        <v>264.3530485872218</v>
+        <v>322.6895875074269</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.1235646519685</v>
+        <v>291.8925461734945</v>
       </c>
       <c r="AD3" t="n">
-        <v>193206.0553557593</v>
+        <v>235842.1158366818</v>
       </c>
       <c r="AE3" t="n">
-        <v>264353.0485872218</v>
+        <v>322689.5875074269</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.707038303098733e-06</v>
+        <v>4.487425499547864e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.268518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>239123.5646519685</v>
+        <v>291892.5461734944</v>
       </c>
     </row>
     <row r="4">
@@ -18653,28 +18653,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.4919010878964</v>
+        <v>197.6822314536041</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.4333200557557</v>
+        <v>270.4775501992423</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.8228417908602</v>
+        <v>244.6635524259317</v>
       </c>
       <c r="AD4" t="n">
-        <v>165491.9010878964</v>
+        <v>197682.2314536041</v>
       </c>
       <c r="AE4" t="n">
-        <v>226433.3200557557</v>
+        <v>270477.5501992423</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.982598356489464e-06</v>
+        <v>4.944218153285664e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.597222222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>204822.8417908602</v>
+        <v>244663.5524259317</v>
       </c>
     </row>
     <row r="5">
@@ -18759,28 +18759,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.6787934380037</v>
+        <v>186.6985316031191</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.6383491285382</v>
+        <v>255.4491674971779</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.4398821240595</v>
+        <v>231.06945747648</v>
       </c>
       <c r="AD5" t="n">
-        <v>154678.7934380037</v>
+        <v>186698.5316031191</v>
       </c>
       <c r="AE5" t="n">
-        <v>211638.3491285382</v>
+        <v>255449.1674971778</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.19689450315634e-06</v>
+        <v>5.299454350685237e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.157407407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>191439.8821240595</v>
+        <v>231069.45747648</v>
       </c>
     </row>
     <row r="6">
@@ -18865,28 +18865,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.7757933120596</v>
+        <v>167.8807828231956</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.7744304147255</v>
+        <v>229.7018934360145</v>
       </c>
       <c r="AC6" t="n">
-        <v>168.044379512047</v>
+        <v>207.7794671151798</v>
       </c>
       <c r="AD6" t="n">
-        <v>135775.7933120596</v>
+        <v>167880.7828231956</v>
       </c>
       <c r="AE6" t="n">
-        <v>185774.4304147255</v>
+        <v>229701.8934360145</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.379053879435182e-06</v>
+        <v>5.601417802461927e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.825617283950617</v>
       </c>
       <c r="AH6" t="n">
-        <v>168044.379512047</v>
+        <v>207779.4671151798</v>
       </c>
     </row>
     <row r="7">
@@ -18971,28 +18971,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>130.9685565012427</v>
+        <v>163.0735460123787</v>
       </c>
       <c r="AB7" t="n">
-        <v>179.1969569298489</v>
+        <v>223.1244199511379</v>
       </c>
       <c r="AC7" t="n">
-        <v>162.094650865023</v>
+        <v>201.8297384681557</v>
       </c>
       <c r="AD7" t="n">
-        <v>130968.5565012427</v>
+        <v>163073.5460123787</v>
       </c>
       <c r="AE7" t="n">
-        <v>179196.9569298489</v>
+        <v>223124.4199511379</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.495001306565344e-06</v>
+        <v>5.793622486272742e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.632716049382716</v>
       </c>
       <c r="AH7" t="n">
-        <v>162094.650865023</v>
+        <v>201829.7384681557</v>
       </c>
     </row>
     <row r="8">
@@ -19077,28 +19077,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>126.3011775788737</v>
+        <v>158.2355748894176</v>
       </c>
       <c r="AB8" t="n">
-        <v>172.8108431780413</v>
+        <v>216.5048944244834</v>
       </c>
       <c r="AC8" t="n">
-        <v>156.3180188467188</v>
+        <v>195.8419711672005</v>
       </c>
       <c r="AD8" t="n">
-        <v>126301.1775788737</v>
+        <v>158235.5748894176</v>
       </c>
       <c r="AE8" t="n">
-        <v>172810.8431780413</v>
+        <v>216504.8944244834</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.60931638980278e-06</v>
+        <v>5.983121252845568e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>156318.0188467188</v>
+        <v>195841.9711672005</v>
       </c>
     </row>
     <row r="9">
@@ -19183,28 +19183,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>122.1816394948905</v>
+        <v>154.1160368054343</v>
       </c>
       <c r="AB9" t="n">
-        <v>167.1743094303447</v>
+        <v>210.8683606767868</v>
       </c>
       <c r="AC9" t="n">
-        <v>151.2194279689758</v>
+        <v>190.7433802894574</v>
       </c>
       <c r="AD9" t="n">
-        <v>122181.6394948905</v>
+        <v>154116.0368054343</v>
       </c>
       <c r="AE9" t="n">
-        <v>167174.3094303447</v>
+        <v>210868.3606767867</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.711133840111536e-06</v>
+        <v>6.151902840565052e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.304783950617284</v>
       </c>
       <c r="AH9" t="n">
-        <v>151219.4279689758</v>
+        <v>190743.3802894574</v>
       </c>
     </row>
     <row r="10">
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>117.6354229022587</v>
+        <v>139.0388387515671</v>
       </c>
       <c r="AB10" t="n">
-        <v>160.9539753233879</v>
+        <v>190.2390731404623</v>
       </c>
       <c r="AC10" t="n">
-        <v>145.5927538188913</v>
+        <v>172.0829230022064</v>
       </c>
       <c r="AD10" t="n">
-        <v>117635.4229022587</v>
+        <v>139038.8387515671</v>
       </c>
       <c r="AE10" t="n">
-        <v>160953.9753233879</v>
+        <v>190239.0731404623</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.824275676176076e-06</v>
+        <v>6.339456729123075e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.146604938271604</v>
       </c>
       <c r="AH10" t="n">
-        <v>145592.7538188913</v>
+        <v>172082.9230022064</v>
       </c>
     </row>
     <row r="11">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>117.1270802670576</v>
+        <v>138.530496116366</v>
       </c>
       <c r="AB11" t="n">
-        <v>160.258438503412</v>
+        <v>189.5435363204863</v>
       </c>
       <c r="AC11" t="n">
-        <v>144.9635980568216</v>
+        <v>171.4537672401366</v>
       </c>
       <c r="AD11" t="n">
-        <v>117127.0802670576</v>
+        <v>138530.496116366</v>
       </c>
       <c r="AE11" t="n">
-        <v>160258.438503412</v>
+        <v>189543.5363204863</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.837946556277652e-06</v>
+        <v>6.362118785991221e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.127314814814814</v>
       </c>
       <c r="AH11" t="n">
-        <v>144963.5980568216</v>
+        <v>171453.7672401366</v>
       </c>
     </row>
     <row r="12">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>117.7797943493674</v>
+        <v>139.1832101986758</v>
       </c>
       <c r="AB12" t="n">
-        <v>161.1515107065407</v>
+        <v>190.4366085236151</v>
       </c>
       <c r="AC12" t="n">
-        <v>145.7714367023187</v>
+        <v>172.2616058856337</v>
       </c>
       <c r="AD12" t="n">
-        <v>117779.7943493674</v>
+        <v>139183.2101986758</v>
       </c>
       <c r="AE12" t="n">
-        <v>161151.5107065407</v>
+        <v>190436.6085236151</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.818001354338412e-06</v>
+        <v>6.329055859739559e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.15432098765432</v>
       </c>
       <c r="AH12" t="n">
-        <v>145771.4367023187</v>
+        <v>172261.6058856337</v>
       </c>
     </row>
   </sheetData>
@@ -19798,28 +19798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.9785483664469</v>
+        <v>387.0080178993063</v>
       </c>
       <c r="AB2" t="n">
-        <v>454.2276957348747</v>
+        <v>529.5214436785882</v>
       </c>
       <c r="AC2" t="n">
-        <v>410.8768419665124</v>
+        <v>478.9846602819167</v>
       </c>
       <c r="AD2" t="n">
-        <v>331978.5483664469</v>
+        <v>387008.0178993063</v>
       </c>
       <c r="AE2" t="n">
-        <v>454227.6957348746</v>
+        <v>529521.4436785881</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.859310763579297e-06</v>
+        <v>3.020346084345745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.25462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>410876.8419665124</v>
+        <v>478984.6602819167</v>
       </c>
     </row>
     <row r="3">
@@ -19904,28 +19904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.5871107808009</v>
+        <v>293.5936361378874</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.4960959763415</v>
+        <v>401.7077654009479</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.9041878692422</v>
+        <v>363.3693400714703</v>
       </c>
       <c r="AD3" t="n">
-        <v>249587.1107808009</v>
+        <v>293593.6361378874</v>
       </c>
       <c r="AE3" t="n">
-        <v>341496.0959763415</v>
+        <v>401707.7654009479</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.261815464764566e-06</v>
+        <v>3.674192403083431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.429783950617285</v>
       </c>
       <c r="AH3" t="n">
-        <v>308904.1878692422</v>
+        <v>363369.3400714704</v>
       </c>
     </row>
     <row r="4">
@@ -20010,28 +20010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.0594910766497</v>
+        <v>254.980675579161</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.7809069785272</v>
+        <v>348.8758092807395</v>
       </c>
       <c r="AC4" t="n">
-        <v>261.2200625231301</v>
+        <v>315.5795916933635</v>
       </c>
       <c r="AD4" t="n">
-        <v>211059.4910766497</v>
+        <v>254980.6755791609</v>
       </c>
       <c r="AE4" t="n">
-        <v>288780.9069785272</v>
+        <v>348875.8092807395</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.547334823648074e-06</v>
+        <v>4.138002592590751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.484567901234568</v>
       </c>
       <c r="AH4" t="n">
-        <v>261220.0625231301</v>
+        <v>315579.5916933635</v>
       </c>
     </row>
     <row r="5">
@@ -20116,28 +20116,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>183.797145067922</v>
+        <v>227.8035809164538</v>
       </c>
       <c r="AB5" t="n">
-        <v>251.4793624395831</v>
+        <v>311.6909093944446</v>
       </c>
       <c r="AC5" t="n">
-        <v>227.4785250419244</v>
+        <v>281.94356646287</v>
       </c>
       <c r="AD5" t="n">
-        <v>183797.145067922</v>
+        <v>227803.5809164538</v>
       </c>
       <c r="AE5" t="n">
-        <v>251479.3624395831</v>
+        <v>311690.9093944447</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.765144035107244e-06</v>
+        <v>4.491821444098239e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.89429012345679</v>
       </c>
       <c r="AH5" t="n">
-        <v>227478.5250419244</v>
+        <v>281943.56646287</v>
       </c>
     </row>
     <row r="6">
@@ -20222,28 +20222,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.653918841513</v>
+        <v>205.63750002282</v>
       </c>
       <c r="AB6" t="n">
-        <v>236.2327087121726</v>
+        <v>281.3622996173177</v>
       </c>
       <c r="AC6" t="n">
-        <v>213.6869905474401</v>
+        <v>254.5094766363912</v>
       </c>
       <c r="AD6" t="n">
-        <v>172653.918841513</v>
+        <v>205637.50002282</v>
       </c>
       <c r="AE6" t="n">
-        <v>236232.7087121726</v>
+        <v>281362.2996173177</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.945836224146211e-06</v>
+        <v>4.785345773826257e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.473765432098766</v>
       </c>
       <c r="AH6" t="n">
-        <v>213686.9905474401</v>
+        <v>254509.4766363912</v>
       </c>
     </row>
     <row r="7">
@@ -20328,28 +20328,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>165.0409505442648</v>
+        <v>198.0245317255718</v>
       </c>
       <c r="AB7" t="n">
-        <v>225.8163096274253</v>
+        <v>270.9459005325705</v>
       </c>
       <c r="AC7" t="n">
-        <v>204.26471797183</v>
+        <v>245.0872040607811</v>
       </c>
       <c r="AD7" t="n">
-        <v>165040.9505442648</v>
+        <v>198024.5317255718</v>
       </c>
       <c r="AE7" t="n">
-        <v>225816.3096274253</v>
+        <v>270945.9005325705</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.084765585029289e-06</v>
+        <v>5.011028730846349e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.180555555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>204264.71797183</v>
+        <v>245087.204060781</v>
       </c>
     </row>
     <row r="8">
@@ -20434,28 +20434,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>148.1855661028183</v>
+        <v>192.1066610967784</v>
       </c>
       <c r="AB8" t="n">
-        <v>202.7540290275694</v>
+        <v>262.8488088602333</v>
       </c>
       <c r="AC8" t="n">
-        <v>183.4034690643028</v>
+        <v>237.7628874533096</v>
       </c>
       <c r="AD8" t="n">
-        <v>148185.5661028183</v>
+        <v>192106.6610967784</v>
       </c>
       <c r="AE8" t="n">
-        <v>202754.0290275694</v>
+        <v>262848.8088602333</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.199576294859026e-06</v>
+        <v>5.197532291557013e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.960648148148149</v>
       </c>
       <c r="AH8" t="n">
-        <v>183403.4690643028</v>
+        <v>237762.8874533096</v>
       </c>
     </row>
     <row r="9">
@@ -20540,28 +20540,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>143.6132963802461</v>
+        <v>176.6821289075737</v>
       </c>
       <c r="AB9" t="n">
-        <v>196.4980478788454</v>
+        <v>241.7442834366398</v>
       </c>
       <c r="AC9" t="n">
-        <v>177.7445499760863</v>
+        <v>218.6725483157497</v>
       </c>
       <c r="AD9" t="n">
-        <v>143613.2963802461</v>
+        <v>176682.1289075736</v>
       </c>
       <c r="AE9" t="n">
-        <v>196498.0478788454</v>
+        <v>241744.2834366398</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.293332608482362e-06</v>
+        <v>5.349834166145101e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.790895061728396</v>
       </c>
       <c r="AH9" t="n">
-        <v>177744.5499760863</v>
+        <v>218672.5483157496</v>
       </c>
     </row>
     <row r="10">
@@ -20646,28 +20646,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>139.5461643903013</v>
+        <v>172.6149969176289</v>
       </c>
       <c r="AB10" t="n">
-        <v>190.9332184610058</v>
+        <v>236.1794540188002</v>
       </c>
       <c r="AC10" t="n">
-        <v>172.7108200675964</v>
+        <v>213.6388184072598</v>
       </c>
       <c r="AD10" t="n">
-        <v>139546.1643903013</v>
+        <v>172614.9969176289</v>
       </c>
       <c r="AE10" t="n">
-        <v>190933.2184610058</v>
+        <v>236179.4540188002</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.383876396862938e-06</v>
+        <v>5.49691747360181e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.636574074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>172710.8200675964</v>
+        <v>213638.8184072598</v>
       </c>
     </row>
     <row r="11">
@@ -20752,28 +20752,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>135.7209007097541</v>
+        <v>168.7897332370816</v>
       </c>
       <c r="AB11" t="n">
-        <v>185.6993239345604</v>
+        <v>230.9455594923549</v>
       </c>
       <c r="AC11" t="n">
-        <v>167.9764410889363</v>
+        <v>208.9044394285996</v>
       </c>
       <c r="AD11" t="n">
-        <v>135720.9007097541</v>
+        <v>168789.7332370816</v>
       </c>
       <c r="AE11" t="n">
-        <v>185699.3239345604</v>
+        <v>230945.5594923549</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.466907818521982e-06</v>
+        <v>5.631797362535911e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.501543209876544</v>
       </c>
       <c r="AH11" t="n">
-        <v>167976.4410889363</v>
+        <v>208904.4394285996</v>
       </c>
     </row>
     <row r="12">
@@ -20858,28 +20858,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>132.1605964067617</v>
+        <v>165.0588367334971</v>
       </c>
       <c r="AB12" t="n">
-        <v>180.8279585176683</v>
+        <v>225.8407823006159</v>
       </c>
       <c r="AC12" t="n">
-        <v>163.5699919504265</v>
+        <v>204.2868550074388</v>
       </c>
       <c r="AD12" t="n">
-        <v>132160.5964067617</v>
+        <v>165058.8367334971</v>
       </c>
       <c r="AE12" t="n">
-        <v>180827.9585176684</v>
+        <v>225840.7823006159</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.543118801973318e-06</v>
+        <v>5.755597832021852e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.381944444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>163569.9919504265</v>
+        <v>204286.8550074388</v>
       </c>
     </row>
     <row r="13">
@@ -20964,28 +20964,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>129.5588140639662</v>
+        <v>162.4570543907015</v>
       </c>
       <c r="AB13" t="n">
-        <v>177.2680851337213</v>
+        <v>222.2809089166688</v>
       </c>
       <c r="AC13" t="n">
-        <v>160.3498678859285</v>
+        <v>201.0667309429408</v>
       </c>
       <c r="AD13" t="n">
-        <v>129558.8140639662</v>
+        <v>162457.0543907015</v>
       </c>
       <c r="AE13" t="n">
-        <v>177268.0851337213</v>
+        <v>222280.9089166688</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.599214435058446e-06</v>
+        <v>5.846722042700546e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.297067901234568</v>
       </c>
       <c r="AH13" t="n">
-        <v>160349.8678859285</v>
+        <v>201066.7309429408</v>
       </c>
     </row>
     <row r="14">
@@ -21070,28 +21070,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>128.4120015267502</v>
+        <v>150.4579793868529</v>
       </c>
       <c r="AB14" t="n">
-        <v>175.6989656265047</v>
+        <v>205.8632451345827</v>
       </c>
       <c r="AC14" t="n">
-        <v>158.9305029422071</v>
+        <v>186.215945949876</v>
       </c>
       <c r="AD14" t="n">
-        <v>128412.0015267502</v>
+        <v>150457.9793868529</v>
       </c>
       <c r="AE14" t="n">
-        <v>175698.9656265047</v>
+        <v>205863.2451345827</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.620565372056486e-06</v>
+        <v>5.881405442712171e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.266203703703704</v>
       </c>
       <c r="AH14" t="n">
-        <v>158930.5029422072</v>
+        <v>186215.945949876</v>
       </c>
     </row>
     <row r="15">
@@ -21176,28 +21176,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>126.0551050692114</v>
+        <v>148.1010829293141</v>
       </c>
       <c r="AB15" t="n">
-        <v>172.4741559143685</v>
+        <v>202.6384354224464</v>
       </c>
       <c r="AC15" t="n">
-        <v>156.0134645429473</v>
+        <v>183.2989075506161</v>
       </c>
       <c r="AD15" t="n">
-        <v>126055.1050692114</v>
+        <v>148101.0829293141</v>
       </c>
       <c r="AE15" t="n">
-        <v>172474.1559143685</v>
+        <v>202638.4354224464</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.666825735552239e-06</v>
+        <v>5.956552809404027e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.200617283950617</v>
       </c>
       <c r="AH15" t="n">
-        <v>156013.4645429473</v>
+        <v>183298.9075506161</v>
       </c>
     </row>
     <row r="16">
@@ -21282,28 +21282,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>126.1064213424398</v>
+        <v>148.1523992025425</v>
       </c>
       <c r="AB16" t="n">
-        <v>172.5443691033137</v>
+        <v>202.7086486113917</v>
       </c>
       <c r="AC16" t="n">
-        <v>156.0769766836845</v>
+        <v>183.3624196913533</v>
       </c>
       <c r="AD16" t="n">
-        <v>126106.4213424398</v>
+        <v>148152.3992025425</v>
       </c>
       <c r="AE16" t="n">
-        <v>172544.3691033137</v>
+        <v>202708.6486113917</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.661438577837455e-06</v>
+        <v>5.947801673752946e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>156076.9766836845</v>
+        <v>183362.4196913533</v>
       </c>
     </row>
     <row r="17">
@@ -21388,28 +21388,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>126.207256666853</v>
+        <v>148.2532345269558</v>
       </c>
       <c r="AB17" t="n">
-        <v>172.6823364427164</v>
+        <v>202.8466159507944</v>
       </c>
       <c r="AC17" t="n">
-        <v>156.201776613853</v>
+        <v>183.4872196215218</v>
       </c>
       <c r="AD17" t="n">
-        <v>126207.256666853</v>
+        <v>148253.2345269558</v>
       </c>
       <c r="AE17" t="n">
-        <v>172682.3364427164</v>
+        <v>202846.6159507944</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.660598378927811e-06</v>
+        <v>5.946436817733971e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>156201.776613853</v>
+        <v>183487.2196215218</v>
       </c>
     </row>
   </sheetData>
@@ -21685,28 +21685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.751850729662</v>
+        <v>142.1946059626064</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.2720564288458</v>
+        <v>194.5569330612278</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.5485478855101</v>
+        <v>175.9886924322898</v>
       </c>
       <c r="AD2" t="n">
-        <v>112751.850729662</v>
+        <v>142194.6059626064</v>
       </c>
       <c r="AE2" t="n">
-        <v>154272.0564288459</v>
+        <v>194556.9330612278</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.747946815789921e-06</v>
+        <v>6.637892309072716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>139548.5478855101</v>
+        <v>175988.6924322898</v>
       </c>
     </row>
     <row r="3">
@@ -21791,28 +21791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.7776264179818</v>
+        <v>122.4062194151625</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.6248826938911</v>
+        <v>167.4815895850274</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.2038412578865</v>
+        <v>151.4973817369661</v>
       </c>
       <c r="AD3" t="n">
-        <v>102777.6264179818</v>
+        <v>122406.2194151625</v>
       </c>
       <c r="AE3" t="n">
-        <v>140624.8826938911</v>
+        <v>167481.5895850274</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.095503446700364e-06</v>
+        <v>7.253440928270884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.27391975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>127203.8412578865</v>
+        <v>151497.3817369661</v>
       </c>
     </row>
     <row r="4">
@@ -21897,28 +21897,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.8568015065427</v>
+        <v>121.4853945037233</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.3649694261327</v>
+        <v>166.221676317269</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.0641723441032</v>
+        <v>150.3577128231829</v>
       </c>
       <c r="AD4" t="n">
-        <v>101856.8015065427</v>
+        <v>121485.3945037233</v>
       </c>
       <c r="AE4" t="n">
-        <v>139364.9694261327</v>
+        <v>166221.676317269</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.127521870420896e-06</v>
+        <v>7.310147935869749e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.231481481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>126064.1723441032</v>
+        <v>150357.7128231828</v>
       </c>
     </row>
   </sheetData>
@@ -22194,28 +22194,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>273.8484569269696</v>
+        <v>317.1868149637904</v>
       </c>
       <c r="AB2" t="n">
-        <v>374.6915401087423</v>
+        <v>433.9889935281381</v>
       </c>
       <c r="AC2" t="n">
-        <v>338.9315054036425</v>
+        <v>392.5696930931898</v>
       </c>
       <c r="AD2" t="n">
-        <v>273848.4569269696</v>
+        <v>317186.8149637904</v>
       </c>
       <c r="AE2" t="n">
-        <v>374691.5401087423</v>
+        <v>433988.993528138</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.125587541959559e-06</v>
+        <v>3.49343727076803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.135802469135804</v>
       </c>
       <c r="AH2" t="n">
-        <v>338931.5054036425</v>
+        <v>392569.6930931897</v>
       </c>
     </row>
     <row r="3">
@@ -22300,28 +22300,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.7655130921201</v>
+        <v>253.1037816203893</v>
       </c>
       <c r="AB3" t="n">
-        <v>287.0104292138149</v>
+        <v>346.3077601636318</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.6185566714002</v>
+        <v>313.2566335797121</v>
       </c>
       <c r="AD3" t="n">
-        <v>209765.5130921201</v>
+        <v>253103.7816203893</v>
       </c>
       <c r="AE3" t="n">
-        <v>287010.4292138149</v>
+        <v>346307.7601636318</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.519714554867249e-06</v>
+        <v>4.14119134776026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>259618.5566714002</v>
+        <v>313256.6335797121</v>
       </c>
     </row>
     <row r="4">
@@ -22406,28 +22406,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.4643132523665</v>
+        <v>220.7172409260639</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.8145025647226</v>
+        <v>301.9950663923419</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.6406272323106</v>
+        <v>273.1730811086837</v>
       </c>
       <c r="AD4" t="n">
-        <v>177464.3132523664</v>
+        <v>220717.2409260639</v>
       </c>
       <c r="AE4" t="n">
-        <v>242814.5025647226</v>
+        <v>301995.0663923419</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.812603935515727e-06</v>
+        <v>4.622559749847473e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.905864197530864</v>
       </c>
       <c r="AH4" t="n">
-        <v>219640.6272323106</v>
+        <v>273173.0811086837</v>
       </c>
     </row>
     <row r="5">
@@ -22512,28 +22512,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.2433227292365</v>
+        <v>197.6617727794178</v>
       </c>
       <c r="AB5" t="n">
-        <v>226.0932041789342</v>
+        <v>270.4495577386476</v>
       </c>
       <c r="AC5" t="n">
-        <v>204.5151860959668</v>
+        <v>244.6382315264885</v>
       </c>
       <c r="AD5" t="n">
-        <v>165243.3227292365</v>
+        <v>197661.7727794177</v>
       </c>
       <c r="AE5" t="n">
-        <v>226093.2041789342</v>
+        <v>270449.5577386476</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.024644167776194e-06</v>
+        <v>4.971051277793733e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.419753086419753</v>
       </c>
       <c r="AH5" t="n">
-        <v>204515.1860959668</v>
+        <v>244638.2315264885</v>
       </c>
     </row>
     <row r="6">
@@ -22618,28 +22618,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>156.8752772675583</v>
+        <v>189.2937273177395</v>
       </c>
       <c r="AB6" t="n">
-        <v>214.6436752061608</v>
+        <v>259.0000287658742</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.1583840988364</v>
+        <v>234.2814295293582</v>
       </c>
       <c r="AD6" t="n">
-        <v>156875.2772675583</v>
+        <v>189293.7273177395</v>
       </c>
       <c r="AE6" t="n">
-        <v>214643.6752061608</v>
+        <v>259000.0287658742</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.191074606487756e-06</v>
+        <v>5.244582377364088e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.087962962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>194158.3840988365</v>
+        <v>234281.4295293582</v>
       </c>
     </row>
     <row r="7">
@@ -22724,28 +22724,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>139.8253615646719</v>
+        <v>172.3290629608738</v>
       </c>
       <c r="AB7" t="n">
-        <v>191.3152283522895</v>
+        <v>235.7882265646522</v>
       </c>
       <c r="AC7" t="n">
-        <v>173.0563714710104</v>
+        <v>213.2849291522444</v>
       </c>
       <c r="AD7" t="n">
-        <v>139825.3615646719</v>
+        <v>172329.0629608738</v>
       </c>
       <c r="AE7" t="n">
-        <v>191315.2283522895</v>
+        <v>235788.2265646522</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.323272529069898e-06</v>
+        <v>5.461851786762682e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.844907407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>173056.3714710104</v>
+        <v>213284.9291522444</v>
       </c>
     </row>
     <row r="8">
@@ -22830,28 +22830,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.976915525622</v>
+        <v>167.4806169218238</v>
       </c>
       <c r="AB8" t="n">
-        <v>184.6813705833216</v>
+        <v>229.1543687956842</v>
       </c>
       <c r="AC8" t="n">
-        <v>167.0556397768328</v>
+        <v>207.2841974580668</v>
       </c>
       <c r="AD8" t="n">
-        <v>134976.915525622</v>
+        <v>167480.6169218238</v>
       </c>
       <c r="AE8" t="n">
-        <v>184681.3705833215</v>
+        <v>229154.3687956842</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.433269658103402e-06</v>
+        <v>5.642633835329297e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.655864197530864</v>
       </c>
       <c r="AH8" t="n">
-        <v>167055.6397768328</v>
+        <v>207284.1974580667</v>
       </c>
     </row>
     <row r="9">
@@ -22936,28 +22936,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>130.1385837622779</v>
+        <v>162.4716929578875</v>
       </c>
       <c r="AB9" t="n">
-        <v>178.0613516125848</v>
+        <v>222.3009380501007</v>
       </c>
       <c r="AC9" t="n">
-        <v>161.0674261254061</v>
+        <v>201.0848485239891</v>
       </c>
       <c r="AD9" t="n">
-        <v>130138.5837622779</v>
+        <v>162471.6929578875</v>
       </c>
       <c r="AE9" t="n">
-        <v>178061.3516125848</v>
+        <v>222300.9380501007</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.547847903265991e-06</v>
+        <v>5.830945021845367e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.474537037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>161067.4261254061</v>
+        <v>201084.8485239891</v>
       </c>
     </row>
     <row r="10">
@@ -23042,28 +23042,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>126.7940526587874</v>
+        <v>159.127161854397</v>
       </c>
       <c r="AB10" t="n">
-        <v>173.4852166064927</v>
+        <v>217.7248030440085</v>
       </c>
       <c r="AC10" t="n">
-        <v>156.9280310216481</v>
+        <v>196.945453420231</v>
       </c>
       <c r="AD10" t="n">
-        <v>126794.0526587874</v>
+        <v>159127.161854397</v>
       </c>
       <c r="AE10" t="n">
-        <v>173485.2166064927</v>
+        <v>217724.8030440085</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.628848077460456e-06</v>
+        <v>5.964070109325312e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.35108024691358</v>
       </c>
       <c r="AH10" t="n">
-        <v>156928.0310216481</v>
+        <v>196945.4534202311</v>
       </c>
     </row>
     <row r="11">
@@ -23148,28 +23148,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>122.064459440201</v>
+        <v>143.7336832128866</v>
       </c>
       <c r="AB11" t="n">
-        <v>167.0139785098994</v>
+        <v>196.6627664543562</v>
       </c>
       <c r="AC11" t="n">
-        <v>151.0743988065519</v>
+        <v>177.8935480419345</v>
       </c>
       <c r="AD11" t="n">
-        <v>122064.459440201</v>
+        <v>143733.6832128866</v>
       </c>
       <c r="AE11" t="n">
-        <v>167013.9785098994</v>
+        <v>196662.7664543563</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.738039735526209e-06</v>
+        <v>6.143528353417298e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.19675925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>151074.3988065519</v>
+        <v>177893.5480419344</v>
       </c>
     </row>
     <row r="12">
@@ -23254,28 +23254,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>124.6259028659506</v>
+        <v>156.9590120615603</v>
       </c>
       <c r="AB12" t="n">
-        <v>170.5186584079169</v>
+        <v>214.7582448454327</v>
       </c>
       <c r="AC12" t="n">
-        <v>154.2445969739528</v>
+        <v>194.2620193725358</v>
       </c>
       <c r="AD12" t="n">
-        <v>124625.9028659506</v>
+        <v>156959.0120615603</v>
       </c>
       <c r="AE12" t="n">
-        <v>170518.6584079169</v>
+        <v>214758.2448454327</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.666805896815724e-06</v>
+        <v>6.026454395192235e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.297067901234568</v>
       </c>
       <c r="AH12" t="n">
-        <v>154244.5969739528</v>
+        <v>194262.0193725358</v>
       </c>
     </row>
     <row r="13">
@@ -23360,28 +23360,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>120.7756322764288</v>
+        <v>142.4448560491144</v>
       </c>
       <c r="AB13" t="n">
-        <v>165.2505483253856</v>
+        <v>194.8993362698424</v>
       </c>
       <c r="AC13" t="n">
-        <v>149.4792679238577</v>
+        <v>176.2984171592403</v>
       </c>
       <c r="AD13" t="n">
-        <v>120775.6322764288</v>
+        <v>142444.8560491144</v>
       </c>
       <c r="AE13" t="n">
-        <v>165250.5483253856</v>
+        <v>194899.3362698424</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.763160361332945e-06</v>
+        <v>6.18481450546981e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.162037037037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>149479.2679238577</v>
+        <v>176298.4171592403</v>
       </c>
     </row>
     <row r="14">
@@ -23466,28 +23466,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>120.9350410204531</v>
+        <v>142.6042647931387</v>
       </c>
       <c r="AB14" t="n">
-        <v>165.468658401577</v>
+        <v>195.1174463460338</v>
       </c>
       <c r="AC14" t="n">
-        <v>149.6765618804969</v>
+        <v>176.4957111158794</v>
       </c>
       <c r="AD14" t="n">
-        <v>120935.0410204531</v>
+        <v>142604.2647931387</v>
       </c>
       <c r="AE14" t="n">
-        <v>165468.6584015769</v>
+        <v>195117.4463460338</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.760290871010332e-06</v>
+        <v>6.180098452028942e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.165895061728396</v>
       </c>
       <c r="AH14" t="n">
-        <v>149676.5618804969</v>
+        <v>176495.7111158794</v>
       </c>
     </row>
   </sheetData>
@@ -23763,28 +23763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.7839757386415</v>
+        <v>165.7052994740975</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.7856259717582</v>
+        <v>226.7253011422282</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.0545065808295</v>
+        <v>205.0869566122379</v>
       </c>
       <c r="AD2" t="n">
-        <v>135783.9757386415</v>
+        <v>165705.2994740975</v>
       </c>
       <c r="AE2" t="n">
-        <v>185785.6259717582</v>
+        <v>226725.3011422282</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.430810901113111e-06</v>
+        <v>5.983034635863077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.168981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>168054.5065808295</v>
+        <v>205086.9566122379</v>
       </c>
     </row>
     <row r="3">
@@ -23869,28 +23869,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.4930527636707</v>
+        <v>143.4996278451472</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.286201751302</v>
+        <v>196.3425215744213</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.4659046017533</v>
+        <v>177.6038668838739</v>
       </c>
       <c r="AD3" t="n">
-        <v>113493.0527636707</v>
+        <v>143499.6278451472</v>
       </c>
       <c r="AE3" t="n">
-        <v>155286.201751302</v>
+        <v>196342.5215744213</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.789226817581668e-06</v>
+        <v>6.608080697591586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.582561728395062</v>
       </c>
       <c r="AH3" t="n">
-        <v>140465.9046017533</v>
+        <v>177603.8668838739</v>
       </c>
     </row>
     <row r="4">
@@ -23975,28 +23975,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.3749669353424</v>
+        <v>126.3794398315444</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.5469226932042</v>
+        <v>172.9179250448322</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.6561286677933</v>
+        <v>156.4148809704336</v>
       </c>
       <c r="AD4" t="n">
-        <v>106374.9669353424</v>
+        <v>126379.4398315444</v>
       </c>
       <c r="AE4" t="n">
-        <v>145546.9226932043</v>
+        <v>172917.9250448322</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.017494154129815e-06</v>
+        <v>7.006159000409345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.266203703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>131656.1286677933</v>
+        <v>156414.8809704336</v>
       </c>
     </row>
     <row r="5">
@@ -24081,28 +24081,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.6511009717611</v>
+        <v>124.6555738679632</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.1882532302347</v>
+        <v>170.5592555818626</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.5225673079554</v>
+        <v>154.2813196105957</v>
       </c>
       <c r="AD5" t="n">
-        <v>104651.1009717611</v>
+        <v>124655.5738679632</v>
       </c>
       <c r="AE5" t="n">
-        <v>143188.2532302347</v>
+        <v>170559.2555818626</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.078592138972351e-06</v>
+        <v>7.112708550947304e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.189043209876543</v>
       </c>
       <c r="AH5" t="n">
-        <v>129522.5673079554</v>
+        <v>154281.3196105957</v>
       </c>
     </row>
     <row r="6">
@@ -24187,28 +24187,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.7272517610847</v>
+        <v>124.7317246572867</v>
       </c>
       <c r="AB6" t="n">
-        <v>143.2924460997229</v>
+        <v>170.6634484513509</v>
       </c>
       <c r="AC6" t="n">
-        <v>129.6168161562153</v>
+        <v>154.3755684588556</v>
       </c>
       <c r="AD6" t="n">
-        <v>104727.2517610847</v>
+        <v>124731.7246572867</v>
       </c>
       <c r="AE6" t="n">
-        <v>143292.4460997229</v>
+        <v>170663.4484513509</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.078153374269712e-06</v>
+        <v>7.111943383618486e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.189043209876543</v>
       </c>
       <c r="AH6" t="n">
-        <v>129616.8161562153</v>
+        <v>154375.5684588556</v>
       </c>
     </row>
   </sheetData>
@@ -24484,28 +24484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.3215573468517</v>
+        <v>208.3339228269504</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.6191776368513</v>
+        <v>285.0516642557055</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.463943841415</v>
+        <v>257.8467334917483</v>
       </c>
       <c r="AD2" t="n">
-        <v>177321.5573468517</v>
+        <v>208333.9228269504</v>
       </c>
       <c r="AE2" t="n">
-        <v>242619.1776368513</v>
+        <v>285051.6642557055</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.868140245421196e-06</v>
+        <v>4.875648327266779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.121913580246915</v>
       </c>
       <c r="AH2" t="n">
-        <v>219463.943841415</v>
+        <v>257846.7334917483</v>
       </c>
     </row>
     <row r="3">
@@ -24590,28 +24590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.322135628615</v>
+        <v>178.2491602541421</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.5726453609009</v>
+        <v>243.8883648575575</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.3348349966984</v>
+        <v>220.6120016150929</v>
       </c>
       <c r="AD3" t="n">
-        <v>147322.135628615</v>
+        <v>178249.1602541421</v>
       </c>
       <c r="AE3" t="n">
-        <v>201572.6453609009</v>
+        <v>243888.3648575575</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.251889458936732e-06</v>
+        <v>5.527996556734965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.280864197530865</v>
       </c>
       <c r="AH3" t="n">
-        <v>182334.8349966984</v>
+        <v>220612.0016150929</v>
       </c>
     </row>
     <row r="4">
@@ -24696,28 +24696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.3868348900526</v>
+        <v>157.3991108616003</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.92804329013</v>
+        <v>215.3604074394359</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.4240335446013</v>
+        <v>194.806712413708</v>
       </c>
       <c r="AD4" t="n">
-        <v>126386.8348900526</v>
+        <v>157399.1108616003</v>
       </c>
       <c r="AE4" t="n">
-        <v>172928.04329013</v>
+        <v>215360.4074394359</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.513510180856139e-06</v>
+        <v>5.972734444723898e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.814043209876544</v>
       </c>
       <c r="AH4" t="n">
-        <v>156424.0335446013</v>
+        <v>194806.712413708</v>
       </c>
     </row>
     <row r="5">
@@ -24802,28 +24802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.0763485245562</v>
+        <v>149.9180322955116</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.9255133289663</v>
+        <v>205.1244657034254</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.3761310042889</v>
+        <v>185.5476745907446</v>
       </c>
       <c r="AD5" t="n">
-        <v>119076.3485245561</v>
+        <v>149918.0322955116</v>
       </c>
       <c r="AE5" t="n">
-        <v>162925.5133289663</v>
+        <v>205124.4657034254</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.713881373180088e-06</v>
+        <v>6.313352191797577e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.497685185185186</v>
       </c>
       <c r="AH5" t="n">
-        <v>147376.1310042889</v>
+        <v>185547.6745907446</v>
       </c>
     </row>
     <row r="6">
@@ -24908,28 +24908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.5990287958084</v>
+        <v>134.2739689520579</v>
       </c>
       <c r="AB6" t="n">
-        <v>155.4312028338052</v>
+        <v>183.7195680695575</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.5970669844527</v>
+        <v>166.1856303450838</v>
       </c>
       <c r="AD6" t="n">
-        <v>113599.0287958084</v>
+        <v>134273.9689520579</v>
       </c>
       <c r="AE6" t="n">
-        <v>155431.2028338052</v>
+        <v>183719.5680695575</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.875872350329701e-06</v>
+        <v>6.588726116776559e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.270061728395062</v>
       </c>
       <c r="AH6" t="n">
-        <v>140597.0669844527</v>
+        <v>166185.6303450838</v>
       </c>
     </row>
     <row r="7">
@@ -25014,28 +25014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>110.5230105281357</v>
+        <v>131.1979506843852</v>
       </c>
       <c r="AB7" t="n">
-        <v>151.2224589356292</v>
+        <v>179.5108241713815</v>
       </c>
       <c r="AC7" t="n">
-        <v>136.7899996969081</v>
+        <v>162.3785630575392</v>
       </c>
       <c r="AD7" t="n">
-        <v>110523.0105281357</v>
+        <v>131197.9506843852</v>
       </c>
       <c r="AE7" t="n">
-        <v>151222.4589356292</v>
+        <v>179510.8241713815</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.962955735104574e-06</v>
+        <v>6.73676209932245e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.15432098765432</v>
       </c>
       <c r="AH7" t="n">
-        <v>136789.9996969081</v>
+        <v>162378.5630575392</v>
       </c>
     </row>
     <row r="8">
@@ -25120,28 +25120,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>110.1970724339063</v>
+        <v>130.8720125901558</v>
       </c>
       <c r="AB8" t="n">
-        <v>150.7764960557309</v>
+        <v>179.0648612914832</v>
       </c>
       <c r="AC8" t="n">
-        <v>136.3865988883544</v>
+        <v>161.9751622489854</v>
       </c>
       <c r="AD8" t="n">
-        <v>110197.0724339063</v>
+        <v>130872.0125901558</v>
       </c>
       <c r="AE8" t="n">
-        <v>150776.4960557309</v>
+        <v>179064.8612914832</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.975978539149935e-06</v>
+        <v>6.75890000309527e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.135030864197531</v>
       </c>
       <c r="AH8" t="n">
-        <v>136386.5988883544</v>
+        <v>161975.1622489854</v>
       </c>
     </row>
   </sheetData>
@@ -25417,28 +25417,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.2784071568276</v>
+        <v>128.932254039697</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.2053406430095</v>
+        <v>176.4107980666392</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.1106555009825</v>
+        <v>159.5743990933186</v>
       </c>
       <c r="AD2" t="n">
-        <v>100278.4071568276</v>
+        <v>128932.254039697</v>
       </c>
       <c r="AE2" t="n">
-        <v>137205.3406430095</v>
+        <v>176410.7980666392</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.118247720557725e-06</v>
+        <v>7.426175182069237e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.366512345679013</v>
       </c>
       <c r="AH2" t="n">
-        <v>124110.6555009825</v>
+        <v>159574.3990933186</v>
       </c>
     </row>
     <row r="3">
@@ -25523,28 +25523,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.08743762199965</v>
+        <v>127.741284504869</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.575803583591</v>
+        <v>174.7812610072207</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.6366391714448</v>
+        <v>158.1003827637808</v>
       </c>
       <c r="AD3" t="n">
-        <v>99087.43762199965</v>
+        <v>127741.284504869</v>
       </c>
       <c r="AE3" t="n">
-        <v>135575.803583591</v>
+        <v>174781.2610072207</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.168302631106864e-06</v>
+        <v>7.516436030780487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.300925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>122636.6391714448</v>
+        <v>158100.3827637808</v>
       </c>
     </row>
   </sheetData>
@@ -25820,28 +25820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.18422761452035</v>
+        <v>122.9393891129487</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.2352594538881</v>
+        <v>168.2110958873251</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.8057890779782</v>
+        <v>152.1572649816413</v>
       </c>
       <c r="AD2" t="n">
-        <v>95184.22761452035</v>
+        <v>122939.3891129487</v>
       </c>
       <c r="AE2" t="n">
-        <v>130235.2594538881</v>
+        <v>168211.0958873252</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.17280103207594e-06</v>
+        <v>7.785112920307144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.516975308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>117805.7890779782</v>
+        <v>152157.2649816413</v>
       </c>
     </row>
   </sheetData>
@@ -44490,28 +44490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.6365510656426</v>
+        <v>303.3957518903085</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.5637423552133</v>
+        <v>415.1194526122373</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.9653781726568</v>
+        <v>375.5010346787357</v>
       </c>
       <c r="AD2" t="n">
-        <v>249636.5510656426</v>
+        <v>303395.7518903085</v>
       </c>
       <c r="AE2" t="n">
-        <v>341563.7423552133</v>
+        <v>415119.4526122373</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.220821711902185e-06</v>
+        <v>3.665333880021737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.804012345679013</v>
       </c>
       <c r="AH2" t="n">
-        <v>308965.3781726568</v>
+        <v>375501.0346787357</v>
       </c>
     </row>
     <row r="3">
@@ -44596,28 +44596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.0555507493234</v>
+        <v>243.9605918921181</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.0930744799873</v>
+        <v>333.7976446083551</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.8385775472529</v>
+        <v>301.9404658949696</v>
       </c>
       <c r="AD3" t="n">
-        <v>201055.5507493234</v>
+        <v>243960.5918921181</v>
       </c>
       <c r="AE3" t="n">
-        <v>275093.0744799873</v>
+        <v>333797.6446083551</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.615440788136965e-06</v>
+        <v>4.316629147027811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.472993827160494</v>
       </c>
       <c r="AH3" t="n">
-        <v>248838.5775472529</v>
+        <v>301940.4658949696</v>
       </c>
     </row>
     <row r="4">
@@ -44702,28 +44702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.2457791327869</v>
+        <v>214.2360716216022</v>
       </c>
       <c r="AB4" t="n">
-        <v>234.3060298399548</v>
+        <v>293.1272446209719</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.9441912026755</v>
+        <v>265.1515918011044</v>
       </c>
       <c r="AD4" t="n">
-        <v>171245.7791327868</v>
+        <v>214236.0716216022</v>
       </c>
       <c r="AE4" t="n">
-        <v>234306.0298399548</v>
+        <v>293127.2446209718</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.897572146184636e-06</v>
+        <v>4.782270139155421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.747685185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>211944.1912026755</v>
+        <v>265151.5918011044</v>
       </c>
     </row>
     <row r="5">
@@ -44808,28 +44808,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.2882717998432</v>
+        <v>192.5097454613629</v>
       </c>
       <c r="AB5" t="n">
-        <v>219.3134848959228</v>
+        <v>263.4003266706845</v>
       </c>
       <c r="AC5" t="n">
-        <v>198.3825137059281</v>
+        <v>238.2617691779917</v>
       </c>
       <c r="AD5" t="n">
-        <v>160288.2717998432</v>
+        <v>192509.7454613629</v>
       </c>
       <c r="AE5" t="n">
-        <v>219313.4848959228</v>
+        <v>263400.3266706845</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.100860761214675e-06</v>
+        <v>5.117785882764612e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.304012345679013</v>
       </c>
       <c r="AH5" t="n">
-        <v>198382.5137059281</v>
+        <v>238261.7691779917</v>
       </c>
     </row>
     <row r="6">
@@ -44914,28 +44914,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>141.0123789681514</v>
+        <v>183.9173306023951</v>
       </c>
       <c r="AB6" t="n">
-        <v>192.9393579312412</v>
+        <v>251.6438055900606</v>
       </c>
       <c r="AC6" t="n">
-        <v>174.5254964024277</v>
+        <v>227.6272739689178</v>
       </c>
       <c r="AD6" t="n">
-        <v>141012.3789681514</v>
+        <v>183917.3306023951</v>
       </c>
       <c r="AE6" t="n">
-        <v>192939.3579312412</v>
+        <v>251643.8055900606</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.276331467557901e-06</v>
+        <v>5.407389825964669e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.968364197530864</v>
       </c>
       <c r="AH6" t="n">
-        <v>174525.4964024277</v>
+        <v>227627.2739689178</v>
       </c>
     </row>
     <row r="7">
@@ -45020,28 +45020,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>135.3100721496707</v>
+        <v>167.6167971572109</v>
       </c>
       <c r="AB7" t="n">
-        <v>185.1372101741778</v>
+        <v>229.3406966015888</v>
       </c>
       <c r="AC7" t="n">
-        <v>167.4679746769127</v>
+        <v>207.4527423996885</v>
       </c>
       <c r="AD7" t="n">
-        <v>135310.0721496707</v>
+        <v>167616.7971572109</v>
       </c>
       <c r="AE7" t="n">
-        <v>185137.2101741778</v>
+        <v>229340.6966015888</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.408428531212765e-06</v>
+        <v>5.625408156869245e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.736882716049383</v>
       </c>
       <c r="AH7" t="n">
-        <v>167467.9746769127</v>
+        <v>207452.7423996885</v>
       </c>
     </row>
     <row r="8">
@@ -45126,28 +45126,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>130.6870799810055</v>
+        <v>162.9938049885457</v>
       </c>
       <c r="AB8" t="n">
-        <v>178.8118283369929</v>
+        <v>223.0153147644039</v>
       </c>
       <c r="AC8" t="n">
-        <v>161.7462784045376</v>
+        <v>201.7310461273134</v>
       </c>
       <c r="AD8" t="n">
-        <v>130687.0799810055</v>
+        <v>162993.8049885457</v>
       </c>
       <c r="AE8" t="n">
-        <v>178811.8283369929</v>
+        <v>223015.3147644039</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.516609287217035e-06</v>
+        <v>5.80395404734921e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.559413580246914</v>
       </c>
       <c r="AH8" t="n">
-        <v>161746.2784045376</v>
+        <v>201731.0461273134</v>
       </c>
     </row>
     <row r="9">
@@ -45232,28 +45232,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>126.4893662994925</v>
+        <v>158.6254991064405</v>
       </c>
       <c r="AB9" t="n">
-        <v>173.0683312878922</v>
+        <v>217.0384059404564</v>
       </c>
       <c r="AC9" t="n">
-        <v>156.5509326527526</v>
+        <v>196.3245650928773</v>
       </c>
       <c r="AD9" t="n">
-        <v>126489.3662994925</v>
+        <v>158625.4991064405</v>
       </c>
       <c r="AE9" t="n">
-        <v>173068.3312878922</v>
+        <v>217038.4059404563</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.617594882868796e-06</v>
+        <v>5.970624754481093e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.405092592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>156550.9326527526</v>
+        <v>196324.5650928773</v>
       </c>
     </row>
     <row r="10">
@@ -45338,28 +45338,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>122.0031791919955</v>
+        <v>143.54108537224</v>
       </c>
       <c r="AB10" t="n">
-        <v>166.9301321708109</v>
+        <v>196.3992455919666</v>
       </c>
       <c r="AC10" t="n">
-        <v>150.9985546443869</v>
+        <v>177.6551772407974</v>
       </c>
       <c r="AD10" t="n">
-        <v>122003.1791919955</v>
+        <v>143541.08537224</v>
       </c>
       <c r="AE10" t="n">
-        <v>166930.1321708109</v>
+        <v>196399.2455919666</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.7324640977923e-06</v>
+        <v>6.16020954779167e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.239197530864198</v>
       </c>
       <c r="AH10" t="n">
-        <v>150998.5546443869</v>
+        <v>177655.1772407974</v>
       </c>
     </row>
     <row r="11">
@@ -45444,28 +45444,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>119.6364638335926</v>
+        <v>141.1743700138371</v>
       </c>
       <c r="AB11" t="n">
-        <v>163.6918878053331</v>
+        <v>193.1610012264888</v>
       </c>
       <c r="AC11" t="n">
-        <v>148.0693637762448</v>
+        <v>174.7259863726553</v>
       </c>
       <c r="AD11" t="n">
-        <v>119636.4638335926</v>
+        <v>141174.3700138371</v>
       </c>
       <c r="AE11" t="n">
-        <v>163691.8878053331</v>
+        <v>193161.0012264889</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.784198314129705e-06</v>
+        <v>6.245593788625415e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.165895061728396</v>
       </c>
       <c r="AH11" t="n">
-        <v>148069.3637762448</v>
+        <v>174725.9863726553</v>
       </c>
     </row>
     <row r="12">
@@ -45550,28 +45550,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>119.2286342904484</v>
+        <v>140.7665404706929</v>
       </c>
       <c r="AB12" t="n">
-        <v>163.1338774322339</v>
+        <v>192.6029908533896</v>
       </c>
       <c r="AC12" t="n">
-        <v>147.5646091299815</v>
+        <v>174.2212317263919</v>
       </c>
       <c r="AD12" t="n">
-        <v>119228.6342904484</v>
+        <v>140766.5404706929</v>
       </c>
       <c r="AE12" t="n">
-        <v>163133.8774322339</v>
+        <v>192602.9908533896</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.793369610071988e-06</v>
+        <v>6.260730465991631e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.15432098765432</v>
       </c>
       <c r="AH12" t="n">
-        <v>147564.6091299815</v>
+        <v>174221.2317263919</v>
       </c>
     </row>
     <row r="13">
@@ -45656,28 +45656,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>119.2577616902694</v>
+        <v>140.7956678705139</v>
       </c>
       <c r="AB13" t="n">
-        <v>163.1737308256792</v>
+        <v>192.6428442468349</v>
       </c>
       <c r="AC13" t="n">
-        <v>147.600658971491</v>
+        <v>174.2572815679014</v>
       </c>
       <c r="AD13" t="n">
-        <v>119257.7616902694</v>
+        <v>140795.6678705139</v>
       </c>
       <c r="AE13" t="n">
-        <v>163173.7308256792</v>
+        <v>192642.8442468349</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.789518679179095e-06</v>
+        <v>6.254374734058855e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.158179012345679</v>
       </c>
       <c r="AH13" t="n">
-        <v>147600.658971491</v>
+        <v>174257.2815679014</v>
       </c>
     </row>
   </sheetData>
@@ -45953,28 +45953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.02987812670783</v>
+        <v>119.9303460661855</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.2875834414729</v>
+        <v>164.0939904411356</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.1394351270977</v>
+        <v>148.4330903008411</v>
       </c>
       <c r="AD2" t="n">
-        <v>93029.87812670783</v>
+        <v>119930.3460661855</v>
       </c>
       <c r="AE2" t="n">
-        <v>127287.5834414729</v>
+        <v>164093.9904411357</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.102735347314174e-06</v>
+        <v>7.889712217113504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.802469135802469</v>
       </c>
       <c r="AH2" t="n">
-        <v>115139.4351270977</v>
+        <v>148433.0903008411</v>
       </c>
     </row>
   </sheetData>
@@ -46250,28 +46250,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.2136465149984</v>
+        <v>135.419936273857</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.7991734446779</v>
+        <v>185.2875311157525</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.4071119791282</v>
+        <v>167.6039491988003</v>
       </c>
       <c r="AD2" t="n">
-        <v>110213.6465149984</v>
+        <v>135419.936273857</v>
       </c>
       <c r="AE2" t="n">
-        <v>150799.1734446779</v>
+        <v>185287.5311157525</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.582813018427622e-06</v>
+        <v>7.389907700378413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.133487654320987</v>
       </c>
       <c r="AH2" t="n">
-        <v>136407.1119791282</v>
+        <v>167603.9491988003</v>
       </c>
     </row>
   </sheetData>
@@ -46547,28 +46547,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.8320203853325</v>
+        <v>159.3022425569382</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.9594569067696</v>
+        <v>217.9643561852407</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.3113964581759</v>
+        <v>197.1621439458791</v>
       </c>
       <c r="AD2" t="n">
-        <v>119832.0203853325</v>
+        <v>159302.2425569382</v>
       </c>
       <c r="AE2" t="n">
-        <v>163959.4569067697</v>
+        <v>217964.3561852408</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.565432567908849e-06</v>
+        <v>6.264324373431538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.99537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>148311.3964581759</v>
+        <v>197162.1439458791</v>
       </c>
     </row>
     <row r="3">
@@ -46653,28 +46653,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.2905997091075</v>
+        <v>137.8506854190771</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.1679759660219</v>
+        <v>188.6133893333248</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.0270322949254</v>
+        <v>170.61239217596</v>
       </c>
       <c r="AD3" t="n">
-        <v>108290.5997091075</v>
+        <v>137850.6854190771</v>
       </c>
       <c r="AE3" t="n">
-        <v>148167.9759660219</v>
+        <v>188613.3893333248</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.926097071678766e-06</v>
+        <v>6.897997679142824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.443672839506173</v>
       </c>
       <c r="AH3" t="n">
-        <v>134027.0322949254</v>
+        <v>170612.39217596</v>
       </c>
     </row>
     <row r="4">
@@ -46759,28 +46759,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.3026676154597</v>
+        <v>123.1232090643853</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.3432672234629</v>
+        <v>168.4626064544445</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.8536641762152</v>
+        <v>152.3847717332322</v>
       </c>
       <c r="AD4" t="n">
-        <v>103302.6676154597</v>
+        <v>123123.2090643853</v>
       </c>
       <c r="AE4" t="n">
-        <v>141343.2672234629</v>
+        <v>168462.6064544445</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.10313343384259e-06</v>
+        <v>7.209043583773953e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>127853.6641762152</v>
+        <v>152384.7717332322</v>
       </c>
     </row>
     <row r="5">
@@ -46865,28 +46865,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.0010745386961</v>
+        <v>122.8216159876216</v>
       </c>
       <c r="AB5" t="n">
-        <v>140.9306142704876</v>
+        <v>168.0499535014691</v>
       </c>
       <c r="AC5" t="n">
-        <v>127.4803942419096</v>
+        <v>152.0115017989266</v>
       </c>
       <c r="AD5" t="n">
-        <v>103001.0745386961</v>
+        <v>122821.6159876216</v>
       </c>
       <c r="AE5" t="n">
-        <v>140930.6142704876</v>
+        <v>168049.9535014691</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.117867999654724e-06</v>
+        <v>7.234931634660024e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.189043209876543</v>
       </c>
       <c r="AH5" t="n">
-        <v>127480.3942419096</v>
+        <v>152011.5017989266</v>
       </c>
     </row>
   </sheetData>
@@ -47162,28 +47162,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.0527624765863</v>
+        <v>198.9990487116764</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.2547624161334</v>
+        <v>272.2792776656133</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.6157114066649</v>
+        <v>246.2933255516532</v>
       </c>
       <c r="AD2" t="n">
-        <v>158052.7624765863</v>
+        <v>198999.0487116764</v>
       </c>
       <c r="AE2" t="n">
-        <v>216254.7624161334</v>
+        <v>272279.2776656133</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.006654050699925e-06</v>
+        <v>5.141043357966956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.847993827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>195615.7114066649</v>
+        <v>246293.3255516532</v>
       </c>
     </row>
     <row r="3">
@@ -47268,28 +47268,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.454883393299</v>
+        <v>172.1433523645247</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.5448120076452</v>
+        <v>235.5341291337541</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.07316679154</v>
+        <v>213.0550824235232</v>
       </c>
       <c r="AD3" t="n">
-        <v>141454.883393299</v>
+        <v>172143.3523645247</v>
       </c>
       <c r="AE3" t="n">
-        <v>193544.8120076453</v>
+        <v>235534.1291337541</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.368453918536737e-06</v>
+        <v>5.759680812123934e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.114969135802469</v>
       </c>
       <c r="AH3" t="n">
-        <v>175073.16679154</v>
+        <v>213055.0824235232</v>
       </c>
     </row>
     <row r="4">
@@ -47374,28 +47374,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.5299011096429</v>
+        <v>152.3036214268892</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.282572218981</v>
+        <v>208.3885339977391</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.4127969055034</v>
+        <v>188.5002247881988</v>
       </c>
       <c r="AD4" t="n">
-        <v>121529.9011096429</v>
+        <v>152303.6214268891</v>
       </c>
       <c r="AE4" t="n">
-        <v>166282.572218981</v>
+        <v>208388.5339977391</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.622589234377849e-06</v>
+        <v>6.194223880763851e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.686728395061729</v>
       </c>
       <c r="AH4" t="n">
-        <v>150412.7969055034</v>
+        <v>188500.2247881988</v>
       </c>
     </row>
     <row r="5">
@@ -47480,28 +47480,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.4334454122569</v>
+        <v>145.036573528911</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.5728884602927</v>
+        <v>198.445438464204</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.6297917371144</v>
+        <v>179.5060843371588</v>
       </c>
       <c r="AD5" t="n">
-        <v>114433.4454122569</v>
+        <v>145036.573528911</v>
       </c>
       <c r="AE5" t="n">
-        <v>156572.8884602927</v>
+        <v>198445.438464204</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.830552097330375e-06</v>
+        <v>6.549817200533042e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.378086419753086</v>
       </c>
       <c r="AH5" t="n">
-        <v>141629.7917371144</v>
+        <v>179506.0843371588</v>
       </c>
     </row>
     <row r="6">
@@ -47586,28 +47586,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.6379163766896</v>
+        <v>130.1538194300715</v>
       </c>
       <c r="AB6" t="n">
-        <v>150.0114340700231</v>
+        <v>178.0821977254103</v>
       </c>
       <c r="AC6" t="n">
-        <v>135.694553344791</v>
+        <v>161.0862827144812</v>
       </c>
       <c r="AD6" t="n">
-        <v>109637.9163766896</v>
+        <v>130153.8194300715</v>
       </c>
       <c r="AE6" t="n">
-        <v>150011.4340700231</v>
+        <v>178082.1977254103</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.975154611636943e-06</v>
+        <v>6.797071385146682e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.181327160493827</v>
       </c>
       <c r="AH6" t="n">
-        <v>135694.553344791</v>
+        <v>161086.2827144812</v>
       </c>
     </row>
     <row r="7">
@@ -47692,28 +47692,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>108.7999892597894</v>
+        <v>129.3158923131713</v>
       </c>
       <c r="AB7" t="n">
-        <v>148.8649452219454</v>
+        <v>176.9357088773326</v>
       </c>
       <c r="AC7" t="n">
-        <v>134.6574837832663</v>
+        <v>160.0492131529564</v>
       </c>
       <c r="AD7" t="n">
-        <v>108799.9892597894</v>
+        <v>129315.8923131713</v>
       </c>
       <c r="AE7" t="n">
-        <v>148864.9452219454</v>
+        <v>176935.7088773326</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.000082398340955e-06</v>
+        <v>6.839695122398277e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.146604938271604</v>
       </c>
       <c r="AH7" t="n">
-        <v>134657.4837832663</v>
+        <v>160049.2131529565</v>
       </c>
     </row>
     <row r="8">
@@ -47798,28 +47798,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>108.9050050628001</v>
+        <v>129.420908116182</v>
       </c>
       <c r="AB8" t="n">
-        <v>149.0086324765949</v>
+        <v>177.079396131982</v>
       </c>
       <c r="AC8" t="n">
-        <v>134.7874577279984</v>
+        <v>160.1791870976886</v>
       </c>
       <c r="AD8" t="n">
-        <v>108905.0050628001</v>
+        <v>129420.908116182</v>
       </c>
       <c r="AE8" t="n">
-        <v>149008.6324765949</v>
+        <v>177079.396131982</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.999868884107944e-06</v>
+        <v>6.839330036854367e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.146604938271604</v>
       </c>
       <c r="AH8" t="n">
-        <v>134787.4577279984</v>
+        <v>160179.1870976886</v>
       </c>
     </row>
   </sheetData>
@@ -48095,28 +48095,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.8961829151657</v>
+        <v>247.1440781724433</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.347996846023</v>
+        <v>338.1534309825963</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.5919774980057</v>
+        <v>305.8805421310391</v>
       </c>
       <c r="AD2" t="n">
-        <v>204896.1829151657</v>
+        <v>247144.0781724433</v>
       </c>
       <c r="AE2" t="n">
-        <v>280347.996846023</v>
+        <v>338153.4309825962</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.527111668971793e-06</v>
+        <v>4.228547008700986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.897376543209877</v>
       </c>
       <c r="AH2" t="n">
-        <v>253591.9774980057</v>
+        <v>305880.5421310391</v>
       </c>
     </row>
     <row r="3">
@@ -48201,28 +48201,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.2395197168628</v>
+        <v>209.4020741195687</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.8244889633988</v>
+        <v>286.5131559777744</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.9858008939853</v>
+        <v>259.1687424950799</v>
       </c>
       <c r="AD3" t="n">
-        <v>167239.5197168628</v>
+        <v>209402.0741195687</v>
       </c>
       <c r="AE3" t="n">
-        <v>228824.4889633988</v>
+        <v>286513.1559777744</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.91448934665733e-06</v>
+        <v>4.876735507977388e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.847993827160494</v>
       </c>
       <c r="AH3" t="n">
-        <v>206985.8008939853</v>
+        <v>259168.7424950799</v>
       </c>
     </row>
     <row r="4">
@@ -48307,28 +48307,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.222693619923</v>
+        <v>184.8233637168606</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.646049118851</v>
+        <v>252.8834800686317</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.6377244310857</v>
+        <v>228.7486356551485</v>
       </c>
       <c r="AD4" t="n">
-        <v>153222.693619923</v>
+        <v>184823.3637168606</v>
       </c>
       <c r="AE4" t="n">
-        <v>209646.049118851</v>
+        <v>252883.4800686317</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.186657343759842e-06</v>
+        <v>5.332146791990897e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.261574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>189637.7244310857</v>
+        <v>228748.6356551485</v>
       </c>
     </row>
     <row r="5">
@@ -48413,28 +48413,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.3431524896316</v>
+        <v>165.0290739325897</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.4459839209424</v>
+        <v>225.8000595233723</v>
       </c>
       <c r="AC5" t="n">
-        <v>165.0335952801255</v>
+        <v>204.2500187549005</v>
       </c>
       <c r="AD5" t="n">
-        <v>133343.1524896316</v>
+        <v>165029.0739325897</v>
       </c>
       <c r="AE5" t="n">
-        <v>182445.9839209424</v>
+        <v>225800.0595233723</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.400315170795267e-06</v>
+        <v>5.689654604759532e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.868055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>165033.5952801255</v>
+        <v>204250.0187549005</v>
       </c>
     </row>
     <row r="6">
@@ -48519,28 +48519,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.2342882876985</v>
+        <v>158.9202097306566</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.0875664157938</v>
+        <v>217.4416420182238</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.472893410553</v>
+        <v>196.6893168853281</v>
       </c>
       <c r="AD6" t="n">
-        <v>127234.2882876985</v>
+        <v>158920.2097306566</v>
       </c>
       <c r="AE6" t="n">
-        <v>174087.5664157938</v>
+        <v>217441.6420182238</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.551738042401246e-06</v>
+        <v>5.943026364559484e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.621141975308642</v>
       </c>
       <c r="AH6" t="n">
-        <v>157472.893410553</v>
+        <v>196689.3168853281</v>
       </c>
     </row>
     <row r="7">
@@ -48625,28 +48625,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>121.6596088289448</v>
+        <v>153.1749380713107</v>
       </c>
       <c r="AB7" t="n">
-        <v>166.4600440428305</v>
+        <v>209.5807078704136</v>
       </c>
       <c r="AC7" t="n">
-        <v>150.573331067568</v>
+        <v>189.578619259692</v>
       </c>
       <c r="AD7" t="n">
-        <v>121659.6088289448</v>
+        <v>153174.9380713107</v>
       </c>
       <c r="AE7" t="n">
-        <v>166460.0440428305</v>
+        <v>209580.7078704135</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.699901726815159e-06</v>
+        <v>6.190944615351099e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.393518518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>150573.331067568</v>
+        <v>189578.619259692</v>
       </c>
     </row>
     <row r="8">
@@ -48731,28 +48731,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>117.7040922404378</v>
+        <v>138.8281293776276</v>
       </c>
       <c r="AB8" t="n">
-        <v>161.047931741362</v>
+        <v>189.9507712791969</v>
       </c>
       <c r="AC8" t="n">
-        <v>145.6777431682026</v>
+        <v>171.8221362659459</v>
       </c>
       <c r="AD8" t="n">
-        <v>117704.0922404378</v>
+        <v>138828.1293776276</v>
       </c>
       <c r="AE8" t="n">
-        <v>161047.931741362</v>
+        <v>189950.771279197</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.799694934648412e-06</v>
+        <v>6.357925867368216e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.25462962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>145677.7431682026</v>
+        <v>171822.1362659459</v>
       </c>
     </row>
     <row r="9">
@@ -48837,28 +48837,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>114.9994012981662</v>
+        <v>136.123438435356</v>
       </c>
       <c r="AB9" t="n">
-        <v>157.3472542716048</v>
+        <v>186.2500938094398</v>
       </c>
       <c r="AC9" t="n">
-        <v>142.3302531622245</v>
+        <v>168.4746462599678</v>
       </c>
       <c r="AD9" t="n">
-        <v>114999.4012981662</v>
+        <v>136123.438435356</v>
       </c>
       <c r="AE9" t="n">
-        <v>157347.2542716048</v>
+        <v>186250.0938094399</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.874190641895631e-06</v>
+        <v>6.482577501844449e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.150462962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>142330.2531622245</v>
+        <v>168474.6462599678</v>
       </c>
     </row>
     <row r="10">
@@ -48943,28 +48943,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>114.8203528979495</v>
+        <v>135.9443900351393</v>
       </c>
       <c r="AB10" t="n">
-        <v>157.1022723513705</v>
+        <v>186.0051118892056</v>
       </c>
       <c r="AC10" t="n">
-        <v>142.108651972623</v>
+        <v>168.2530450703662</v>
       </c>
       <c r="AD10" t="n">
-        <v>114820.3528979495</v>
+        <v>135944.3900351393</v>
       </c>
       <c r="AE10" t="n">
-        <v>157102.2723513705</v>
+        <v>186005.1118892056</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.878950089858647e-06</v>
+        <v>6.490541356269319e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.146604938271604</v>
       </c>
       <c r="AH10" t="n">
-        <v>142108.651972623</v>
+        <v>168253.0450703662</v>
       </c>
     </row>
     <row r="11">
@@ -49049,28 +49049,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>114.9726675816427</v>
+        <v>136.0967047188325</v>
       </c>
       <c r="AB11" t="n">
-        <v>157.3106760212491</v>
+        <v>186.2135155590841</v>
       </c>
       <c r="AC11" t="n">
-        <v>142.2971658887448</v>
+        <v>168.441558986488</v>
       </c>
       <c r="AD11" t="n">
-        <v>114972.6675816427</v>
+        <v>136096.7047188325</v>
       </c>
       <c r="AE11" t="n">
-        <v>157310.6760212491</v>
+        <v>186213.5155590841</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.876673832137204e-06</v>
+        <v>6.486732556326988e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.146604938271604</v>
       </c>
       <c r="AH11" t="n">
-        <v>142297.1658887448</v>
+        <v>168441.558986488</v>
       </c>
     </row>
   </sheetData>
